--- a/Acceptance-Test-Item-list.xlsx
+++ b/Acceptance-Test-Item-list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r23600282\random-grouping-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66D7608-BB45-465A-ABD7-75B983F9E89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94E7DA8-7FA1-4C85-9707-0000EAEF512F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2C3B6304-3D18-4260-875D-1181E531DC78}"/>
   </bookViews>
@@ -36,19 +36,20 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={21F08B55-F943-4724-A40B-A155466C1ED9}</author>
+    <author>tc={63037488-24ED-4E03-B98E-0BD8CC08A270}</author>
     <author>tc={18AF3A53-99D4-4A1D-AF18-3697A996A30F}</author>
   </authors>
   <commentList>
-    <comment ref="F35" authorId="0" shapeId="0" xr:uid="{21F08B55-F943-4724-A40B-A155466C1ED9}">
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{63037488-24ED-4E03-B98E-0BD8CC08A270}">
       <text>
         <t>[スレッド化されたコメント]
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
 コメント:
-    「表の項目」とは？</t>
+    上下の中項目と同様な書き方に揃えてください。
+前後の書き方は「グループ数がXX」と書かれています</t>
       </text>
     </comment>
-    <comment ref="D46" authorId="1" shapeId="0" xr:uid="{18AF3A53-99D4-4A1D-AF18-3697A996A30F}">
+    <comment ref="E46" authorId="1" shapeId="0" xr:uid="{18AF3A53-99D4-4A1D-AF18-3697A996A30F}">
       <text>
         <t>[スレッド化されたコメント]
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="260">
   <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
@@ -125,6 +126,11 @@
     <rPh sb="6" eb="10">
       <t>ショキヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のURLにアクセスする
+http://localhost:3000</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -878,37 +884,7 @@
 2.エンターキー押下する</t>
   </si>
   <si>
-    <t>中項目の「グループ数が空」を行う</t>
-    <rPh sb="0" eb="3">
-      <t>チュウコウモク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中項目の「グループ数が空」を行う</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>中項目「メンバー数が1の時の削除」を行う</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中項目の「メンバー名が1から12文字の文字列」の2項目ある操作のどちらかを行う</t>
-    <rPh sb="0" eb="3">
-      <t>チュウコウモク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>オコナ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -934,6 +910,12 @@
     <rPh sb="16" eb="18">
       <t>セイスウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・以下のURLにアクセスする
+http://localhost:3000
+・グループ数を「1」から「12」に変更する</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1059,20 +1041,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>上のcellを確認</t>
-    <rPh sb="0" eb="1">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上のcellを確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>グループ分け結果が以下を満たし表示される
 ・項目の行が表示されない
 ・1列のみ
@@ -1270,13 +1238,6 @@
     <t xml:space="preserve">・シークレットモードで以下のURLにアクセスする
 http://localhost:3000
 ・メンバー入力欄に「ヤマダ」と入力し、エンターキーを押下する </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中項目の「メンバー名が1から12文字の文字列」の1行目の項目の操作を行う</t>
-    <rPh sb="25" eb="27">
-      <t>ギョウメ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1307,11 +1268,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・メンバーリストに「ヤマダ」がいる場合、アプリを閉じる
-・メンバーリストに「ヤマダ」がいない場合、中項目「メンバー名が1から12文字の文字列」を行い、アプリを閉じる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>シークレットモード以外で以下のURLにアクセスする
 http://localhost:3000</t>
     <phoneticPr fontId="1"/>
@@ -1331,44 +1287,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">・メンバーリストに「ヤマダ」がいない場合、中項目「メンバー名が1から12文字の文字列」を行い、アプリを閉じる
-・メンバーリストに「ヤマダ」がいる場合、先に1つ下のcellのテストを行う
-</t>
-    <rPh sb="21" eb="24">
-      <t>チュウコウモク</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・メンバーリストに「ヤマダ」がいる場合、中項目「メンバー数が2以上の時の削除」を行いアプリを閉じる
-・メンバーリストに「ヤマダ」がいない場合、先に1つ上のcellのテストを行う</t>
-    <rPh sb="20" eb="23">
-      <t>チュウコウモク</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>ウエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メンバーリストの取得に失敗した場合のグループ数の初期表示</t>
     <rPh sb="8" eb="10">
       <t>シュトク</t>
@@ -1492,7 +1410,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中項目の「メンバー名が1から12文字の文字列」の1行目の項目の操作を行う</t>
+    <t>中項目の「メンバー名が1から12文字の文字列」の1行目の項目の提条件以外の操作を行う</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1519,24 +1437,496 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>項目番号</t>
+    <rPh sb="0" eb="4">
+      <t>コウモクバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>1.2.4</t>
+  </si>
+  <si>
+    <t>1.2.5</t>
+  </si>
+  <si>
+    <t>1.2.6</t>
+  </si>
+  <si>
+    <t>1.2.7</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>1.3.3</t>
+  </si>
+  <si>
+    <t>1.3.4</t>
+  </si>
+  <si>
+    <t>1.3.5</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.4.2</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.5.2</t>
+  </si>
+  <si>
+    <t>1.5.3</t>
+  </si>
+  <si>
+    <t>1.5.4</t>
+  </si>
+  <si>
+    <t>1.5.5</t>
+  </si>
+  <si>
+    <t>1.5.6</t>
+  </si>
+  <si>
+    <t>1.5.7</t>
+  </si>
+  <si>
+    <t>1.5.8</t>
+  </si>
+  <si>
+    <t>1.5.9</t>
+  </si>
+  <si>
+    <t>1.5.10</t>
+  </si>
+  <si>
+    <t>1.6.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.6.2</t>
+  </si>
+  <si>
+    <t>1.6.3</t>
+  </si>
+  <si>
+    <t>1.6.4</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>2.1.3</t>
+  </si>
+  <si>
+    <t>2.1.4</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t>2.4.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.4.2</t>
+  </si>
+  <si>
+    <t>2.4.3</t>
+  </si>
+  <si>
+    <t>2.5.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.5.2</t>
+  </si>
+  <si>
+    <t>2.6.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.6.2</t>
+  </si>
+  <si>
+    <t>2.6.3</t>
+  </si>
+  <si>
+    <t>2.7.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.7.2</t>
+  </si>
+  <si>
+    <t>2.7.3</t>
+  </si>
+  <si>
+    <t>2.7.4</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.1.2</t>
+  </si>
+  <si>
+    <t>3.1.3</t>
+  </si>
+  <si>
+    <t>3.1.4</t>
+  </si>
+  <si>
+    <t>3.1.5</t>
+  </si>
+  <si>
+    <t>3.1.6</t>
+  </si>
+  <si>
+    <t>3.1.7</t>
+  </si>
+  <si>
+    <t>3.1.8</t>
+  </si>
+  <si>
+    <t>3.1.9</t>
+  </si>
+  <si>
+    <t>3.1.10</t>
+  </si>
+  <si>
+    <t>3.1.11</t>
+  </si>
+  <si>
+    <t>3.1.12</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>3.2.3</t>
+  </si>
+  <si>
+    <t>3.2.4</t>
+  </si>
+  <si>
+    <t>3.2.5</t>
+  </si>
+  <si>
+    <t>3.2.6</t>
+  </si>
+  <si>
+    <t>3.2.7</t>
+  </si>
+  <si>
+    <t>3.2.8</t>
+  </si>
+  <si>
+    <t>3.2.9</t>
+  </si>
+  <si>
+    <t>3.2.10</t>
+  </si>
+  <si>
+    <t>3.2.11</t>
+  </si>
+  <si>
+    <t>3.2.12</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.3.2</t>
+  </si>
+  <si>
+    <t>3.3.3</t>
+  </si>
+  <si>
+    <t>3.3.4</t>
+  </si>
+  <si>
+    <t>3.4.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.5.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.5.2</t>
+  </si>
+  <si>
+    <t>3.5.3</t>
+  </si>
+  <si>
+    <t>3.5.4</t>
+  </si>
+  <si>
+    <t>3.6.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.6.2</t>
+  </si>
+  <si>
+    <t>3.6.3</t>
+  </si>
+  <si>
+    <t>3.6.4</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.1.2</t>
+  </si>
+  <si>
+    <t>4.2.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.2.2</t>
+  </si>
+  <si>
+    <t>4.2.3</t>
+  </si>
+  <si>
+    <t>・メンバーリストに「ヤマダ」がいる場合、中項目「メンバー数が2以上の時の削除」を行いアプリを閉じる
+・メンバーリストに「ヤマダ」がいない場合、先に項目番号1.2.6のテストを行う</t>
+    <rPh sb="20" eb="23">
+      <t>チュウコウモク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="73" eb="77">
+      <t>コウモクバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・メンバーリストに「ヤマダ」がいない場合、中項目「メンバー名が1から12文字の文字列」を行い、アプリを閉じる
+・メンバーリストに「ヤマダ」がいる場合、先に項目番号1.2.7のテストを行う
+</t>
+    <rPh sb="21" eb="24">
+      <t>チュウコウモク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・メンバーリストに「ヤマダ」がいる場合、アプリを閉じる
+・メンバーリストに「ヤマダ」がいない場合、項目番号3.1.1を行い、アプリを閉じる</t>
+    <rPh sb="49" eb="53">
+      <t>コウモクバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>メンバーリストの取得に失敗した場合のメンバー一覧と「追加」機能の
 初期表示</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・シークレットモードで以下のURLにアクセスする
-http://localhost:3000
-・グループ数を「1」から「12」に変更する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中項目の「メンバー名が1から12文字の文字列」の1行目の項目のテスト手順を行う</t>
-    <rPh sb="34" eb="36">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="37" eb="38">
+    <t>項目番号2.4.1を行う</t>
+    <rPh sb="0" eb="4">
+      <t>コウモクバンゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
       <t>オコナ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目番号2.4.1を行う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目番号3.1.1を行う</t>
+    <rPh sb="0" eb="4">
+      <t>コウモクバンゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目番号3.1.1の操作を行う</t>
+    <rPh sb="0" eb="4">
+      <t>コウモクバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目番号3.1.1の操作を行う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目番号1.2.2の画像参照</t>
+    <rPh sb="0" eb="4">
+      <t>コウモクバンゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ガゾウサンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目番号1.2.2の画像参照</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目番号1.3.2の画像参照</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目番号1.3.2の画像参照</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目番号1.5.3の画像参照</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目番号1.6.2の画像参照</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目番号2.1.1の画像参照</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目番号2.7.3の画像参照</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目番号3.1.5の画像参照</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目番号3.1.11の画像参照</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1612,7 +2002,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1728,6 +2118,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1737,7 +2188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1769,12 +2220,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1849,20 +2294,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1873,32 +2336,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1912,23 +2396,23 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1952,13 +2436,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>11339</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1996,13 +2480,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>30842</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>11339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2410278</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>790575</xdr:rowOff>
@@ -2040,13 +2524,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>27668</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>25853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1913165</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>448581</xdr:rowOff>
@@ -2084,13 +2568,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>8590</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>11339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>543478</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>925721</xdr:rowOff>
@@ -2128,13 +2612,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>56696</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>17496</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1469735</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>447221</xdr:rowOff>
@@ -2172,13 +2656,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>56695</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>16001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1607144</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2216,13 +2700,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>45357</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>57243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>682853</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -2260,13 +2744,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>45356</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>41586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>865697</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>226785</xdr:rowOff>
@@ -2304,13 +2788,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>35723</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>11339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>524012</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2348,13 +2832,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>79375</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>29594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1216533</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -2392,13 +2876,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>55266</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>22678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1105351</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -2436,16 +2920,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>68034</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>22166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2293898</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>746553</xdr:rowOff>
+      <xdr:rowOff>740203</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2480,13 +2964,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>37713</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>34018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1106238</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2524,13 +3008,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>102053</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>22679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>583992</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>244477</xdr:rowOff>
@@ -2568,13 +3052,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>68034</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>23980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1283678</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -2612,16 +3096,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>45356</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>14876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1379754</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>463378</xdr:rowOff>
+      <xdr:rowOff>457028</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2656,13 +3140,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>75426</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>64861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>873125</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>792683</xdr:rowOff>
@@ -2700,13 +3184,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>68034</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>18313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1688308</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -2744,13 +3228,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>34018</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>22678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1362066</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>467723</xdr:rowOff>
@@ -2788,13 +3272,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>29795</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>22678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1206638</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>1564</xdr:rowOff>
@@ -2832,13 +3316,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>79375</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>46751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1905961</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2876,13 +3360,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>45356</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>58000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1131874</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -2920,13 +3404,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>79375</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>23900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1506389</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>450396</xdr:rowOff>
@@ -2964,13 +3448,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>56695</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>18814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1292678</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>425808</xdr:rowOff>
@@ -3008,13 +3492,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>54052</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>45356</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1097709</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>1564</xdr:rowOff>
@@ -3052,13 +3536,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>150585</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>53522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1970821</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>1135710</xdr:rowOff>
@@ -3096,13 +3580,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>45357</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>56696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1131875</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>407</xdr:rowOff>
@@ -3140,13 +3624,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>37494</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>11340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1417489</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>426497</xdr:rowOff>
@@ -3184,13 +3668,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>56697</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>113393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1292680</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>526737</xdr:rowOff>
@@ -3228,13 +3712,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>79375</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>34017</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1116682</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>903967</xdr:rowOff>
@@ -3272,13 +3756,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>90715</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>45358</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1610179</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>735128</xdr:rowOff>
@@ -3316,13 +3800,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>34017</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>11340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1666874</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>713091</xdr:rowOff>
@@ -3360,13 +3844,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>11339</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>34018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1530803</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>717438</xdr:rowOff>
@@ -3404,13 +3888,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>19503</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>34018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1665060</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>1891</xdr:rowOff>
@@ -3448,13 +3932,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>64862</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>8166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1344385</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>2035</xdr:rowOff>
@@ -3492,13 +3976,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>56696</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>22678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1326694</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>1200</xdr:rowOff>
@@ -3536,13 +4020,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>105228</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>59871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1054553</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>543732</xdr:rowOff>
@@ -3580,13 +4064,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>79375</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>619932</xdr:rowOff>
@@ -3624,13 +4108,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>22679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1973036</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>464471</xdr:rowOff>
@@ -3668,13 +4152,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>79375</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>22680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1283153</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>463785</xdr:rowOff>
@@ -3712,13 +4196,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>45357</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>11339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1942192</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>456306</xdr:rowOff>
@@ -3756,13 +4240,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>45357</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>45357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1245960</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>486462</xdr:rowOff>
@@ -3800,13 +4284,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>45358</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>22680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2066925</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>993236</xdr:rowOff>
@@ -3844,13 +4328,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>22678</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1037085</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>1341210</xdr:rowOff>
@@ -3888,13 +4372,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>45357</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>90714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2066924</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>1058095</xdr:rowOff>
@@ -3932,13 +4416,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>45357</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>68035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1059764</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>1336221</xdr:rowOff>
@@ -3976,13 +4460,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>56698</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>45357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1569812</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>428876</xdr:rowOff>
@@ -4020,13 +4504,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>102054</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>11340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1286329</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>428305</xdr:rowOff>
@@ -4064,13 +4548,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>79375</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>11339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>944335</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>1149989</xdr:rowOff>
@@ -4108,13 +4592,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>34018</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>22679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1211943</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>445994</xdr:rowOff>
@@ -4152,13 +4636,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>22679</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>45357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>887639</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>1180832</xdr:rowOff>
@@ -4196,13 +4680,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>22679</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>34018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2332760</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>592818</xdr:rowOff>
@@ -4240,13 +4724,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>79375</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>45357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1201964</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>1131190</xdr:rowOff>
@@ -4284,13 +4768,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>22679</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>113393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2332760</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>675368</xdr:rowOff>
@@ -4328,13 +4812,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>34018</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>22679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1036051</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>1001033</xdr:rowOff>
@@ -4372,13 +4856,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>192768</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>147410</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1436493</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>1247321</xdr:rowOff>
@@ -4416,13 +4900,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>68036</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>56697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1448783</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>1511300</xdr:rowOff>
@@ -4460,13 +4944,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>19505</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>27668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1707243</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>435147</xdr:rowOff>
@@ -4504,13 +4988,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>30844</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>48532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1607003</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>619656</xdr:rowOff>
@@ -4548,13 +5032,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>79375</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1838415</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>847764</xdr:rowOff>
@@ -4592,13 +5076,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>64795</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>12958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>923277</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1106669</xdr:rowOff>
@@ -4636,13 +5120,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>38878</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>51837</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1865464</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1135710</xdr:rowOff>
@@ -4680,13 +5164,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>220306</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>90714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>755194</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>998746</xdr:rowOff>
@@ -4724,13 +5208,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>64796</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>207347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>50282</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>657743</xdr:rowOff>
@@ -4768,13 +5252,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>51837</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>129592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2431273</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>902478</xdr:rowOff>
@@ -4812,13 +5296,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>207347</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>90714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2096019</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>507092</xdr:rowOff>
@@ -4856,13 +5340,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>168470</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>194387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>697008</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>1105594</xdr:rowOff>
@@ -4900,13 +5384,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>103674</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>77755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1513538</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>507480</xdr:rowOff>
@@ -4944,13 +5428,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>220306</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>233265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1630170</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>666165</xdr:rowOff>
@@ -4988,13 +5472,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>243114</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>618930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1656153</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>1055005</xdr:rowOff>
@@ -5032,13 +5516,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>230155</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>748522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1646369</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>1181422</xdr:rowOff>
@@ -5076,13 +5560,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>64796</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>220306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1618420</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>654701</xdr:rowOff>
@@ -5120,13 +5604,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>116633</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>103674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>750954</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>914698</xdr:rowOff>
@@ -5468,10 +5952,11 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F35" dT="2022-12-14T00:25:50.45" personId="{62B05ED4-6599-489F-A6FB-1AD8AC37CCE1}" id="{21F08B55-F943-4724-A40B-A155466C1ED9}">
-    <text>「表の項目」とは？</text>
+  <threadedComment ref="D37" dT="2022-12-14T01:13:31.99" personId="{62B05ED4-6599-489F-A6FB-1AD8AC37CCE1}" id="{63037488-24ED-4E03-B98E-0BD8CC08A270}" done="1">
+    <text>上下の中項目と同様な書き方に揃えてください。
+前後の書き方は「グループ数がXX」と書かれています</text>
   </threadedComment>
-  <threadedComment ref="D46" dT="2022-12-14T01:03:50.42" personId="{62B05ED4-6599-489F-A6FB-1AD8AC37CCE1}" id="{18AF3A53-99D4-4A1D-AF18-3697A996A30F}" done="1">
+  <threadedComment ref="E46" dT="2022-12-14T01:03:50.42" personId="{62B05ED4-6599-489F-A6FB-1AD8AC37CCE1}" id="{18AF3A53-99D4-4A1D-AF18-3697A996A30F}" done="1">
     <text>中項目の「グループ数が空」を行う→前提条件のURLにアクセスするも含むので２重になっています</text>
   </threadedComment>
 </ThreadedComments>
@@ -5479,1360 +5964,1639 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A09298-0F71-4963-8BFE-63280B4801A1}">
-  <dimension ref="B2:H94"/>
+  <dimension ref="B2:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:C32"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.33203125" customWidth="1"/>
-    <col min="5" max="5" width="69" customWidth="1"/>
-    <col min="6" max="7" width="65.08203125" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" customWidth="1"/>
+    <col min="6" max="6" width="69" customWidth="1"/>
+    <col min="7" max="8" width="65.08203125" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="2:9" ht="66" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="2:9" ht="73" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="2:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="2:9" ht="108" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="2:9" ht="103" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="2:9" ht="103" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="2:9" ht="68.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="2:9" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="56" t="s">
+      <c r="H14" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="2:9" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="30"/>
+    </row>
+    <row r="17" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="30"/>
+    </row>
+    <row r="18" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="30"/>
+    </row>
+    <row r="19" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="42"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="2:9" ht="115" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="2:9" ht="115" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="30"/>
+    </row>
+    <row r="27" spans="2:9" ht="115" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="42"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="2:9" ht="115" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="42"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="30"/>
+    </row>
+    <row r="29" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="42"/>
+      <c r="D29" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="30"/>
+    </row>
+    <row r="30" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="30"/>
+    </row>
+    <row r="31" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="42"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="I31" s="30"/>
+    </row>
+    <row r="32" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="43"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="I32" s="30"/>
+    </row>
+    <row r="33" spans="2:9" s="1" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="F33" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+    </row>
+    <row r="34" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="52"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="72"/>
+    </row>
+    <row r="35" spans="2:9" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="52"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="2:9" s="1" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="52"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="52"/>
+      <c r="D37" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="70"/>
+    </row>
+    <row r="38" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="52"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" s="70"/>
+    </row>
+    <row r="39" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="52"/>
+      <c r="D39" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="20"/>
+    </row>
+    <row r="40" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" s="52"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="52"/>
+      <c r="D41" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H41" s="24"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="2:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="52"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="24"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="2:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" s="52"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H43" s="24"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" s="52"/>
+      <c r="D44" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="24"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" s="52"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="52"/>
+      <c r="D46" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="F46" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="24"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" s="52"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="24"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="2:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" s="52"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="24"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" s="52"/>
+      <c r="D49" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="F49" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" s="24"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="2:9" ht="55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="52"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" s="24"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="2:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="52"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H51" s="24"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="2:9" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" s="53"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="2:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="2:9" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="52"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H54" s="8"/>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="2:9" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" s="52"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="G55" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="19"/>
-    </row>
-    <row r="4" spans="2:8" ht="66" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="63"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="2:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="63"/>
-      <c r="C5" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="20"/>
-    </row>
-    <row r="6" spans="2:8" ht="73" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="63"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="2:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="63"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="15" t="s">
+      <c r="H55" s="8"/>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="2:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" s="52"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="8"/>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="2:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" s="52"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H57" s="8"/>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="2:9" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C58" s="52"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="2:9" ht="92" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="C59" s="52"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="2:9" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" s="52"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H60" s="8"/>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="C61" s="52"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H61" s="8"/>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="2:9" ht="70" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62" s="52"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H62" s="8"/>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="2:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" s="52"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="2:8" ht="108" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="63"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="2:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="63"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="2:8" ht="103" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="63"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="2:8" ht="103" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="63"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="2:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="63"/>
-      <c r="C12" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="2:8" ht="68.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="63"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="2:8" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="63"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="2:8" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="63"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="63"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="32"/>
-    </row>
-    <row r="17" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="63"/>
-      <c r="C17" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="32"/>
-    </row>
-    <row r="18" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="63"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="32"/>
-    </row>
-    <row r="19" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="63"/>
-      <c r="C19" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="32"/>
-    </row>
-    <row r="20" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="63"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="32"/>
-    </row>
-    <row r="21" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="63"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="H21" s="32"/>
-    </row>
-    <row r="22" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="63"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="H22" s="32"/>
-    </row>
-    <row r="23" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="63"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="H23" s="32"/>
-    </row>
-    <row r="24" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="63"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="H24" s="32"/>
-    </row>
-    <row r="25" spans="2:8" ht="115" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="63"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="32"/>
-    </row>
-    <row r="26" spans="2:8" ht="115" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="63"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="32"/>
-    </row>
-    <row r="27" spans="2:8" ht="115" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="63"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="32"/>
-    </row>
-    <row r="28" spans="2:8" ht="115" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="63"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="32"/>
-    </row>
-    <row r="29" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="63"/>
-      <c r="C29" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="32"/>
-    </row>
-    <row r="30" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="63"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="32"/>
-    </row>
-    <row r="31" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="63"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="H31" s="32"/>
-    </row>
-    <row r="32" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="55"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="H32" s="32"/>
-    </row>
-    <row r="33" spans="2:8" s="1" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-    </row>
-    <row r="34" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="48"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="51"/>
-    </row>
-    <row r="35" spans="2:8" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="48"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="2:8" s="1" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="48"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="48"/>
-      <c r="C37" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="H63" s="8"/>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="2:9" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" s="52"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="2:9" ht="64" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" s="52"/>
+      <c r="D65" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="F65" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H65" s="8"/>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="2:9" ht="58" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66" s="52"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H66" s="8"/>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="2:9" ht="58" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="C67" s="52"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H67" s="8"/>
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="2:9" ht="58" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C68" s="52"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H68" s="8"/>
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="2:9" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" s="52"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H69" s="8"/>
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="2:9" ht="46" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" s="52"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H70" s="8"/>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="2:9" ht="48.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="C71" s="52"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H71" s="8"/>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="2:9" ht="59" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="C72" s="52"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H72" s="8"/>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="2:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" s="52"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H73" s="8"/>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="2:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" s="52"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H74" s="8"/>
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="2:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" s="52"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H75" s="8"/>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="2:9" ht="39.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" s="52"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H76" s="8"/>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="2:9" ht="85" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="C77" s="52"/>
+      <c r="D77" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E77" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F77" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="2:9" ht="107.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="C78" s="52"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H78" s="24"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="2:9" ht="92.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="C79" s="52"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H79" s="23"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="2:9" ht="118" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80" s="52"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H80" s="24"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="C81" s="52"/>
+      <c r="D81" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E81" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="F81" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H81" s="22"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="C82" s="52"/>
+      <c r="D82" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E82" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="F82" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H82" s="7"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" s="52"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H83" s="7"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="C84" s="52"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H84" s="7"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="2:9" ht="95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="C85" s="52"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H85" s="7"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="2:9" ht="62.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="C86" s="52"/>
+      <c r="D86" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E86" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="F86" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H86" s="24"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="2:9" ht="94" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="C87" s="52"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H87" s="24"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="2:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="C88" s="52"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H88" s="24"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="2:9" ht="81" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="C89" s="53"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H89" s="24"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="2:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B90" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="C90" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="D90" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="E90" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="F90" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="2:9" ht="131" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="C91" s="61"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="64"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+    </row>
+    <row r="92" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="C92" s="61"/>
+      <c r="D92" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="E92" s="64" t="s">
+        <v>249</v>
+      </c>
+      <c r="F92" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H92" s="7"/>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="2:9" ht="50.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="C93" s="61"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="64"/>
+      <c r="F93" s="64"/>
+      <c r="G93" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="45"/>
-    </row>
-    <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="48"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H38" s="45"/>
-    </row>
-    <row r="39" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="48"/>
-      <c r="C39" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="E39" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="48"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="48"/>
-      <c r="C41" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G41" s="26"/>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="48"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" s="26"/>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="2:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="48"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G43" s="26"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="48"/>
-      <c r="C44" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" s="26"/>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="48"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G45" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="48"/>
-      <c r="C46" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E46" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" s="26"/>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="2:8" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="48"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G48" s="26"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="48"/>
-      <c r="C49" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="E49" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G49" s="26"/>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="2:8" ht="55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G50" s="26"/>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="2:8" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G51" s="26"/>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="2:8" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G52" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="2:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E53" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="2:8" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="2:8" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="E55" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G55" s="8"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="2:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="2:8" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G57" s="8"/>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="2:8" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="2:8" ht="92" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="48"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="E59" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="2:8" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G60" s="8"/>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="2:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="E61" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="2:8" ht="70" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G62" s="8"/>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="2:8" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="8" t="s">
+      <c r="H93" s="7"/>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="2:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="C94" s="62"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G63" s="8"/>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="2:8" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="2:8" ht="64" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="48"/>
-      <c r="C65" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="E65" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G65" s="8"/>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G66" s="8"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G68" s="8"/>
-      <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="2:8" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G69" s="8"/>
-      <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="2:8" ht="46" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="48"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G70" s="8"/>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="2:8" ht="48.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G71" s="8"/>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="2:8" ht="59" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="48"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G72" s="8"/>
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="2:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" s="48"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G73" s="8"/>
-      <c r="H73" s="3"/>
-    </row>
-    <row r="74" spans="2:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" s="48"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="2:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B75" s="48"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G75" s="8"/>
-      <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="2:8" ht="39.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B76" s="48"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G76" s="8"/>
-      <c r="H76" s="3"/>
-    </row>
-    <row r="77" spans="2:8" ht="85" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B77" s="48"/>
-      <c r="C77" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D77" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="E77" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-    </row>
-    <row r="78" spans="2:8" ht="107.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B78" s="48"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G78" s="26"/>
-      <c r="H78" s="6"/>
-    </row>
-    <row r="79" spans="2:8" ht="92.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B79" s="48"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G79" s="25"/>
-      <c r="H79" s="6"/>
-    </row>
-    <row r="80" spans="2:8" ht="118" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B80" s="48"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G80" s="26"/>
-      <c r="H80" s="6"/>
-    </row>
-    <row r="81" spans="2:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B81" s="48"/>
-      <c r="C81" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G81" s="24"/>
-      <c r="H81" s="6"/>
-    </row>
-    <row r="82" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B82" s="48"/>
-      <c r="C82" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="D82" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="E82" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="6"/>
-    </row>
-    <row r="83" spans="2:8" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B83" s="48"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="44"/>
-      <c r="F83" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G83" s="7"/>
-      <c r="H83" s="6"/>
-    </row>
-    <row r="84" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B84" s="48"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G84" s="7"/>
-      <c r="H84" s="6"/>
-    </row>
-    <row r="85" spans="2:8" ht="95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B85" s="48"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G85" s="7"/>
-      <c r="H85" s="6"/>
-    </row>
-    <row r="86" spans="2:8" ht="62.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B86" s="48"/>
-      <c r="C86" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="D86" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="E86" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G86" s="26"/>
-      <c r="H86" s="6"/>
-    </row>
-    <row r="87" spans="2:8" ht="94" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B87" s="48"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="43"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G87" s="26"/>
-      <c r="H87" s="6"/>
-    </row>
-    <row r="88" spans="2:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B88" s="48"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G88" s="26"/>
-      <c r="H88" s="6"/>
-    </row>
-    <row r="89" spans="2:8" ht="81" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B89" s="49"/>
-      <c r="C89" s="49"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="44"/>
-      <c r="F89" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G89" s="26"/>
-      <c r="H89" s="6"/>
-    </row>
-    <row r="90" spans="2:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B90" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C90" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="D90" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="E90" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-    </row>
-    <row r="91" spans="2:8" ht="131" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B91" s="60"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="46"/>
-      <c r="E91" s="46"/>
-      <c r="F91" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-    </row>
-    <row r="92" spans="2:8" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B92" s="60"/>
-      <c r="C92" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="D92" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="E92" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G92" s="7"/>
-      <c r="H92" s="6"/>
-    </row>
-    <row r="93" spans="2:8" ht="50.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B93" s="60"/>
-      <c r="C93" s="53"/>
-      <c r="D93" s="46"/>
-      <c r="E93" s="46"/>
-      <c r="F93" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G93" s="7"/>
-      <c r="H93" s="6"/>
-    </row>
-    <row r="94" spans="2:8" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B94" s="51"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="46"/>
-      <c r="E94" s="46"/>
-      <c r="F94" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G94" s="26"/>
-      <c r="H94" s="6"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B3:B32"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="D19:D28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="D5:D11"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="C33:C52"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="E65:E76"/>
+    <mergeCell ref="D65:D76"/>
+    <mergeCell ref="D53:D64"/>
+    <mergeCell ref="E61:E64"/>
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="E55:E58"/>
     <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="B53:B89"/>
-    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C3:C32"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="C53:C89"/>
     <mergeCell ref="D86:D89"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="D65:D76"/>
-    <mergeCell ref="C65:C76"/>
-    <mergeCell ref="C53:C64"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="B33:B52"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="C19:C28"/>
-    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="E86:E89"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6843,14 +7607,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="42a61f6c-c59c-42a4-a645-ef628d67d90a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f7d62ce6-85b2-47d4-aed3-b6ad05956793">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7059,27 +7821,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="42a61f6c-c59c-42a4-a645-ef628d67d90a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f7d62ce6-85b2-47d4-aed3-b6ad05956793">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F142F9F-EC10-46B2-90E7-713CF6987131}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07B79634-3F75-44E6-8875-C9CD5ACC8C5C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="42a61f6c-c59c-42a4-a645-ef628d67d90a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f7d62ce6-85b2-47d4-aed3-b6ad05956793"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7104,9 +7859,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07B79634-3F75-44E6-8875-C9CD5ACC8C5C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F142F9F-EC10-46B2-90E7-713CF6987131}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="42a61f6c-c59c-42a4-a645-ef628d67d90a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f7d62ce6-85b2-47d4-aed3-b6ad05956793"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Acceptance-Test-Item-list.xlsx
+++ b/Acceptance-Test-Item-list.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r23600282\random-grouping-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94E7DA8-7FA1-4C85-9707-0000EAEF512F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4154887-B519-4814-ABC6-72F46D6FC5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2C3B6304-3D18-4260-875D-1181E531DC78}"/>
   </bookViews>
   <sheets>
-    <sheet name="テストケースマトリクス" sheetId="1" r:id="rId1"/>
+    <sheet name="20221222テストケースマトリクス" sheetId="2" r:id="rId1"/>
+    <sheet name="テストケースマトリクス" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,6 +35,34 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={496C609A-70F9-4B08-B1A8-718012DDC9FF}</author>
+    <author>tc={CB938228-CB71-4F41-984B-61CA962B68A9}</author>
+  </authors>
+  <commentList>
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{496C609A-70F9-4B08-B1A8-718012DDC9FF}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    上下の中項目と同様な書き方に揃えてください。
+前後の書き方は「グループ数がXX」と書かれています</t>
+      </text>
+    </comment>
+    <comment ref="E46" authorId="1" shapeId="0" xr:uid="{CB938228-CB71-4F41-984B-61CA962B68A9}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    中項目の「グループ数が空」を行う→前提条件のURLにアクセスするも含むので２重になっています</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={63037488-24ED-4E03-B98E-0BD8CC08A270}</author>
@@ -62,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="262">
   <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
@@ -1929,12 +1958,19 @@
     <t>項目番号3.1.11の画像参照</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1980,6 +2016,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2188,7 +2231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2312,20 +2355,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2336,10 +2403,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2351,16 +2418,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2378,41 +2466,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2433,6 +2515,3223 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11339</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AABFEAA-6043-4BF9-8B66-3005BCAFBE68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19331552" y="459362"/>
+          <a:ext cx="4947065" cy="459361"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30842</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2410278</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7913AD7-63F9-431F-AD40-91A343A589A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19347542" y="925739"/>
+          <a:ext cx="2379436" cy="779236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>27668</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1913165</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>448581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08174CB4-68B0-4A47-BB4A-38A9792A349E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19344368" y="1778453"/>
+          <a:ext cx="1885497" cy="422728"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8590</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>11339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>543478</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>925721</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{755A8703-C898-4FB7-B4B4-FC9533D79D9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19325290" y="2221139"/>
+          <a:ext cx="534888" cy="914382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56696</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>17496</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1469735</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>447221</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4187A39-1D79-4D22-94BD-D710FD42E2AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19373396" y="5599146"/>
+          <a:ext cx="1413039" cy="429725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56695</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>16001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1607144</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D7EA6B-85FF-407B-9BE8-D785A609A4DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19373395" y="8671051"/>
+          <a:ext cx="1550449" cy="441199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>682853</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA48D2B7-2771-4672-B668-6F67EF1A8CEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19362057" y="9169493"/>
+          <a:ext cx="637496" cy="812708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45356</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>41586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>865697</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>226785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA8A7B46-2B57-4401-8995-B66E1824316F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19362056" y="33004436"/>
+          <a:ext cx="820341" cy="750349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>35723</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>524012</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9190C50C-95BA-4D16-B1E6-BF21970CEAF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19352423" y="35545939"/>
+          <a:ext cx="488289" cy="217261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>29594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1216533</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B97642-CAA9-47CC-8FC5-93C0FD5B32DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19396075" y="36021394"/>
+          <a:ext cx="1137158" cy="427607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>55266</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>22678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1105351</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{725135B9-8B0B-41B9-99DA-D7103A96317F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19371966" y="36789178"/>
+          <a:ext cx="1050085" cy="434523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68034</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>22166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2293898</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>740203</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6067B4A8-6812-4428-A759-DDE39EFB93FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19384734" y="37245866"/>
+          <a:ext cx="2225864" cy="718037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>37713</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1106238</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{165E0F3B-3EC5-41FC-AD99-F5857F0573C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19354413" y="38000668"/>
+          <a:ext cx="1068525" cy="962932"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>102053</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>22679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>583992</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>244477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32579B58-F64B-46E8-B886-CF0D542D54E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19418753" y="38986279"/>
+          <a:ext cx="481939" cy="221798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68034</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>23980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1283678</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADB87D0-EB50-4A92-96A8-1760B418F932}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19384734" y="39673380"/>
+          <a:ext cx="1215644" cy="433221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45356</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>14876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1379754</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>457028</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{951C9680-0021-4FDD-82BD-5EB9E25F8C27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19362056" y="40121476"/>
+          <a:ext cx="1334398" cy="442152"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>75426</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>64861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>873125</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>792683</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4884B93E-0B1B-4526-A769-DACBD2A69E73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19392126" y="40628661"/>
+          <a:ext cx="797699" cy="727822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68034</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>18313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1688308</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661AD315-7947-4D5A-9A58-1DBE1D324222}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19384734" y="41496513"/>
+          <a:ext cx="1620274" cy="438888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>34018</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>22678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1362066</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>467723</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F8D9A8D-51B1-4422-8749-4114C106C76E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19350718" y="41958078"/>
+          <a:ext cx="1328048" cy="445045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>29795</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>22678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1206638</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{369797B7-DBEE-43AF-A2A2-C57F3A094B38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19346495" y="42656578"/>
+          <a:ext cx="1176843" cy="893286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>46751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1905961</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F17C32-AA02-4741-B269-EC232ADA92D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19396075" y="44280851"/>
+          <a:ext cx="1826586" cy="1077199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45356</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>58000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1131874</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C920EC-67AC-4EF3-B4A0-7DAAC3B27C22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19362056" y="45416050"/>
+          <a:ext cx="1086518" cy="1389801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>23900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1506389</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>450396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{283D72C6-3B6C-4FE9-A30E-B412F65A672D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19396075" y="46829750"/>
+          <a:ext cx="1427014" cy="426496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56695</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>18814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1292678</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>425808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D66943-BB83-4F6F-B6BC-BEB949C7491F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19373395" y="47510464"/>
+          <a:ext cx="1235983" cy="406994"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>54052</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>45356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1097709</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>1564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{675B39D6-004A-4403-9583-F43206E869E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19370752" y="47987856"/>
+          <a:ext cx="1043657" cy="870608"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>150585</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>53522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1970821</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>1135710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4494CD93-DC5D-4E43-91C0-3A9A27264AB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19467285" y="49596222"/>
+          <a:ext cx="1820236" cy="1082188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>56696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1131875</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A130DCD0-16E2-46F5-A953-4D97E6235DF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19362057" y="50767796"/>
+          <a:ext cx="1086518" cy="1391511"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>37494</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>11340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1417489</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>426497</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D4EDBD9-E4E1-425D-9DB2-41B8D1AF47A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19354194" y="52170240"/>
+          <a:ext cx="1379995" cy="415157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56697</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>113393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1292680</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>526737</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDFFEB8B-726C-46D4-957E-2E4C2138DA11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19373397" y="52729493"/>
+          <a:ext cx="1235983" cy="413344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>34017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1116682</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>903967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{002A8BEA-F1E4-4325-8C1E-ED455F66E893}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19396075" y="53539117"/>
+          <a:ext cx="1037307" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>90715</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>45358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1610179</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>735128</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B89F76B1-330F-4605-8CFE-D5F15EF6CC65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19407415" y="55150658"/>
+          <a:ext cx="1519464" cy="689770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>34017</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>11340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1666874</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>713091</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABBCDD03-85DB-46C4-8F9D-80E05C737CFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19350717" y="55929440"/>
+          <a:ext cx="1632857" cy="701751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11339</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1530803</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>717438</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{191C394B-CB78-418B-844C-D97D5FE204DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19328039" y="56688718"/>
+          <a:ext cx="1519464" cy="683420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19503</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1665060</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>1891</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B3B2E87-FEDF-483C-B31B-6677D555C46B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19336203" y="57425318"/>
+          <a:ext cx="1645557" cy="704473"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>64862</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>8166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1344385</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>2035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F5302A-5032-4F1A-9019-59C7669CB27A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19381562" y="58136066"/>
+          <a:ext cx="1279523" cy="616169"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56696</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>22678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1326694</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>1200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73C8779-E7A0-49E9-BDE9-9A113D2110B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19373396" y="59357078"/>
+          <a:ext cx="1269998" cy="594472"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>105228</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1054553</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>543732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB5199A-79FF-43FE-A461-7DD5B0D66E7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19421928" y="58810071"/>
+          <a:ext cx="949325" cy="483861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>619932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8EFBB0F-AD3F-48F2-AC4B-484F94D3874E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19396075" y="60086421"/>
+          <a:ext cx="958850" cy="483861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>22679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1973036</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>464471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="図 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A28450B-72A5-4D17-9B3A-C59B91480501}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19392901" y="60722329"/>
+          <a:ext cx="1896835" cy="441792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>22680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1283153</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>463785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1199E76-BA30-4118-9DA2-2CDAA02951B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19396075" y="61211280"/>
+          <a:ext cx="1203778" cy="441105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>11339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1942192</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>456306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="図 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E00058-AAEA-4E48-AC6B-6135EBE1A0DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19362057" y="61688889"/>
+          <a:ext cx="1896835" cy="444967"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1245960</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>486462</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE3A5E6-9601-4A1A-AAE5-A3E013215B3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19362057" y="62211857"/>
+          <a:ext cx="1200603" cy="441105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45358</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>22680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2066925</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>993236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="図 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADD0A51B-52D6-4B78-982D-F25AE34F38A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19362058" y="62690830"/>
+          <a:ext cx="2021567" cy="970556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22678</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1037085</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>1341210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B0C5BE-DE8A-4049-B93C-5AC865F41614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19339378" y="63823849"/>
+          <a:ext cx="1014407" cy="1265011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2066924</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>1058095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="図 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A351B1-E5EF-43EE-ADA2-110E7541BB08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19362057" y="65203614"/>
+          <a:ext cx="2021567" cy="967381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1059764</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>1336221</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="図 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61316289-47BD-4F8E-8898-6AD387C2F623}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19362057" y="66355685"/>
+          <a:ext cx="1014407" cy="1268186"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56698</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1569812</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>428876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="図 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABEAAA10-C936-4DF1-AD56-0555B266AD74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19373398" y="67831607"/>
+          <a:ext cx="1513114" cy="383519"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>102054</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>11340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1286329</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>428305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="図 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25090A55-200B-48E7-9313-648270199021}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19418754" y="68254790"/>
+          <a:ext cx="1184275" cy="416965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>11339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>944335</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>1149989</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="図 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FE63FEC-FCDE-49D0-8542-03B72C530CD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19396075" y="68711989"/>
+          <a:ext cx="864960" cy="1138650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>34018</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>22679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1211943</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>445994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="図 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D66532F-F052-4EC2-81C0-7A2A063647FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19350718" y="69936179"/>
+          <a:ext cx="1177925" cy="423315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22679</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>887639</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>1180832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="図 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E517477-88AF-4863-8222-C094B7A3F662}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19339379" y="70416057"/>
+          <a:ext cx="864960" cy="1135475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22679</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2332760</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>592818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="図 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841B1D2C-059D-4FD8-B833-AEA990F85317}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19339379" y="71611218"/>
+          <a:ext cx="2310081" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1201964</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>1131190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="図 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6ED26D-FDB7-4430-91B4-3E87FE9A9F1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19396075" y="72416307"/>
+          <a:ext cx="1122589" cy="1085833"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22679</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>113393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2332760</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>675368</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="図 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA3FCA26-FCEA-47BB-B868-8AEB39B69B79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19339379" y="73678143"/>
+          <a:ext cx="2310081" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>34018</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>22679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1036051</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>1001033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="図 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D0A05D-B26A-4C60-8013-BD4CD2A878A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19350718" y="74520879"/>
+          <a:ext cx="1002033" cy="978354"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>192768</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>147410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1436493</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>1247321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="図 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD11712-F647-424F-A011-1BC19211287D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19509468" y="75674310"/>
+          <a:ext cx="1243725" cy="1099911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>56697</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1448783</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1511300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="図 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCCAE6F6-73F0-413A-B734-7ED49DE37DAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19384736" y="76859947"/>
+          <a:ext cx="1380747" cy="1454603"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19505</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>27668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1707243</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>435147</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="図 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F69D2DB-737A-44B4-8E19-D766A7E7696B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19336205" y="78494618"/>
+          <a:ext cx="1687738" cy="407479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30844</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>48532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1607003</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>619656</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="図 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E131DD0-D5B7-4E9C-AF95-F6FE898FE094}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19347544" y="78972682"/>
+          <a:ext cx="1576159" cy="571124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1838415</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>847764</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="図 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD47CF1C-13CF-4BD2-9479-07E45EC46CB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19396075" y="79644875"/>
+          <a:ext cx="1759040" cy="768389"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>64795</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>923277</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1106669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="図 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{474F1FF3-C593-42B6-A4B4-9FC5A36CB123}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19381495" y="11366758"/>
+          <a:ext cx="858482" cy="1093711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38878</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>51837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1865464</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1135710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="図 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F26143-F0D0-45F6-8D31-AFEC589F79CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19355578" y="6090687"/>
+          <a:ext cx="1826586" cy="1083873"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220306</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>755194</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>998746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="図 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED150D2-227C-4B8A-8D9B-671401B7641E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19537006" y="7437664"/>
+          <a:ext cx="534888" cy="908032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>64796</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>207347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50282</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>657743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="図 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22B62A5-7BA6-4121-B719-54B1DD6CFBC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19381496" y="12773997"/>
+          <a:ext cx="4944836" cy="450396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>51837</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>129592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2431273</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>902478</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="図 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2A052EB-11E4-4371-897A-6299BD21F417}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19368537" y="13909092"/>
+          <a:ext cx="2379436" cy="772886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>207347</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2096019</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>507092</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="図 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{586E263C-37E1-41EE-AE74-DF181FCCD839}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19524047" y="15083064"/>
+          <a:ext cx="1888672" cy="416378"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>168470</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>194387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>697008</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1105594</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="図 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17732384-949A-4A3B-8B3D-756293AE24F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19485170" y="16399587"/>
+          <a:ext cx="528538" cy="911207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>103674</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>77755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1513538</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>507480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="図 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C017A0-EF6D-41B9-9AA6-006CC7676B20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19420374" y="22347205"/>
+          <a:ext cx="1409864" cy="429725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220306</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>233265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1630170</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>666165</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="図 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00675959-3668-4D62-8669-3EE4F7B303F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19537006" y="23963215"/>
+          <a:ext cx="1409864" cy="432900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>243114</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>618930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1656153</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1055005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="図 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B1044B4-E1B3-44AF-9232-9A1198A2D23F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19559814" y="25809380"/>
+          <a:ext cx="1413039" cy="436075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>230155</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>748522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1646369</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1181422</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="図 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{245CABB8-A4C1-46DA-BA75-7F0E272CC8D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19546855" y="27399472"/>
+          <a:ext cx="1416214" cy="432900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>64796</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>220306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1618420</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>654701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="図 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FBC4B1-DBBB-4B9B-A2CC-89BE539C9E4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19381496" y="28331756"/>
+          <a:ext cx="1553624" cy="434395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>116633</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>103674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>750954</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>914698</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="図 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF8C3DF0-352D-4B76-9AB0-7CD8A581530B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19433333" y="29427974"/>
+          <a:ext cx="634321" cy="811024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5952,6 +9251,18 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D37" dT="2022-12-14T01:13:31.99" personId="{62B05ED4-6599-489F-A6FB-1AD8AC37CCE1}" id="{496C609A-70F9-4B08-B1A8-718012DDC9FF}" done="1">
+    <text>上下の中項目と同様な書き方に揃えてください。
+前後の書き方は「グループ数がXX」と書かれています</text>
+  </threadedComment>
+  <threadedComment ref="E46" dT="2022-12-14T01:03:50.42" personId="{62B05ED4-6599-489F-A6FB-1AD8AC37CCE1}" id="{CB938228-CB71-4F41-984B-61CA962B68A9}" done="1">
+    <text>中項目の「グループ数が空」を行う→前提条件のURLにアクセスするも含むので２重になっています</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="D37" dT="2022-12-14T01:13:31.99" personId="{62B05ED4-6599-489F-A6FB-1AD8AC37CCE1}" id="{63037488-24ED-4E03-B98E-0BD8CC08A270}" done="1">
     <text>上下の中項目と同様な書き方に揃えてください。
 前後の書き方は「グループ数がXX」と書かれています</text>
@@ -5963,14 +9274,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A09298-0F71-4963-8BFE-63280B4801A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB6C040-B41A-4C4A-9166-8E0CC6823196}">
   <dimension ref="B2:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.08203125" bestFit="1" customWidth="1"/>
@@ -5980,7 +9291,7 @@
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:9">
       <c r="B2" s="37" t="s">
         <v>148</v>
       </c>
@@ -6006,1285 +9317,1441 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:9" ht="36" customHeight="1">
       <c r="B3" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="71" t="s">
         <v>115</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>106</v>
       </c>
       <c r="H3" s="14"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="2:9" ht="66" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="83" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="66" customHeight="1">
       <c r="B4" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="66"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="14" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="14"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="83" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="36">
       <c r="B5" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="46" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="54" t="s">
         <v>115</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="13"/>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="2:9" ht="73" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="84" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="73" customHeight="1">
       <c r="B6" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="27" t="s">
+      <c r="C6" s="81"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="48" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="13"/>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="2:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I6" s="84" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="84.75" customHeight="1">
       <c r="B7" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="45"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="13" t="s">
         <v>103</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="2:9" ht="108" x14ac:dyDescent="0.55000000000000004">
+      <c r="I7" s="84" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="108">
       <c r="B8" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="45"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="25" t="s">
         <v>127</v>
       </c>
       <c r="H8" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="I8" s="85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="36">
       <c r="B9" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="54"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="12"/>
-      <c r="I9" s="19"/>
-    </row>
-    <row r="10" spans="2:9" ht="103" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I9" s="85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="103" customHeight="1">
       <c r="B10" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="28" t="s">
+      <c r="C10" s="81"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="44" t="s">
         <v>128</v>
       </c>
       <c r="H10" s="12"/>
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" spans="2:9" ht="103" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10" s="85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="103" customHeight="1">
       <c r="B11" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="28" t="s">
+      <c r="C11" s="81"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="44" t="s">
         <v>131</v>
       </c>
       <c r="H11" s="12"/>
-      <c r="I11" s="19"/>
-    </row>
-    <row r="12" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" s="85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="36">
       <c r="B12" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="55" t="s">
+      <c r="C12" s="81"/>
+      <c r="D12" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="49" t="s">
         <v>122</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="16"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="2:9" ht="68.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12" s="86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="68.5" customHeight="1">
       <c r="B13" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="58"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="16"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="2:9" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13" s="86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="54">
       <c r="B14" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="58"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="16" t="s">
         <v>108</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="2:9" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="I14" s="86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="54">
       <c r="B15" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="59"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I15" s="86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="95.5" customHeight="1">
       <c r="B16" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="69"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="31" t="s">
         <v>243</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="44" t="s">
         <v>130</v>
       </c>
       <c r="H16" s="25"/>
-      <c r="I16" s="30"/>
-    </row>
-    <row r="17" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I16" s="85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="95.5" customHeight="1">
       <c r="B17" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="55" t="s">
+      <c r="C17" s="81"/>
+      <c r="D17" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="44" t="s">
         <v>136</v>
       </c>
       <c r="H17" s="25"/>
-      <c r="I17" s="30"/>
-    </row>
-    <row r="18" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I17" s="85" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="95.5" customHeight="1">
       <c r="B18" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="29" t="s">
+      <c r="C18" s="81"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="44" t="s">
         <v>137</v>
       </c>
       <c r="H18" s="25"/>
-      <c r="I18" s="30"/>
-    </row>
-    <row r="19" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I18" s="85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="95.5" customHeight="1">
       <c r="B19" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="55" t="s">
+      <c r="C19" s="81"/>
+      <c r="D19" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="48" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="25"/>
-      <c r="I19" s="30"/>
-    </row>
-    <row r="20" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I19" s="85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="95.5" customHeight="1">
       <c r="B20" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="27" t="s">
+      <c r="C20" s="81"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="48" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="25"/>
-      <c r="I20" s="30"/>
-    </row>
-    <row r="21" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I20" s="85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="95.5" customHeight="1">
       <c r="B21" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="27" t="s">
+      <c r="C21" s="81"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="48" t="s">
         <v>103</v>
       </c>
       <c r="H21" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="I21" s="30"/>
-    </row>
-    <row r="22" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I21" s="85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="95.5" customHeight="1">
       <c r="B22" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="29" t="s">
+      <c r="C22" s="81"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="44" t="s">
         <v>127</v>
       </c>
       <c r="H22" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="I22" s="30"/>
-    </row>
-    <row r="23" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I22" s="85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="95.5" customHeight="1">
       <c r="B23" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="29" t="s">
+      <c r="C23" s="81"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="44" t="s">
         <v>138</v>
       </c>
       <c r="H23" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="I23" s="30"/>
-    </row>
-    <row r="24" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I23" s="85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="95.5" customHeight="1">
       <c r="B24" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="29" t="s">
+      <c r="C24" s="81"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="44" t="s">
         <v>139</v>
       </c>
       <c r="H24" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="I24" s="30"/>
-    </row>
-    <row r="25" spans="2:9" ht="115" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I24" s="85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="115" customHeight="1">
       <c r="B25" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="55" t="s">
+      <c r="C25" s="81"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="49" t="s">
         <v>142</v>
       </c>
       <c r="F25" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="44" t="s">
         <v>143</v>
       </c>
       <c r="H25" s="25"/>
-      <c r="I25" s="30"/>
-    </row>
-    <row r="26" spans="2:9" ht="115" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I25" s="85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="115" customHeight="1">
       <c r="B26" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
       <c r="F26" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="44" t="s">
         <v>143</v>
       </c>
       <c r="H26" s="25"/>
-      <c r="I26" s="30"/>
-    </row>
-    <row r="27" spans="2:9" ht="115" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I26" s="85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="115" customHeight="1">
       <c r="B27" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
       <c r="F27" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="44" t="s">
         <v>143</v>
       </c>
       <c r="H27" s="25"/>
-      <c r="I27" s="30"/>
-    </row>
-    <row r="28" spans="2:9" ht="115" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I27" s="85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="115" customHeight="1">
       <c r="B28" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="34" t="s">
+      <c r="C28" s="81"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="44" t="s">
         <v>143</v>
       </c>
       <c r="H28" s="25"/>
-      <c r="I28" s="30"/>
-    </row>
-    <row r="29" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I28" s="85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="95.5" customHeight="1">
       <c r="B29" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="55" t="s">
+      <c r="C29" s="81"/>
+      <c r="D29" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="74" t="s">
+      <c r="F29" s="52" t="s">
         <v>129</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>16</v>
       </c>
       <c r="H29" s="25"/>
-      <c r="I29" s="30"/>
-    </row>
-    <row r="30" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I29" s="85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="95.5" customHeight="1">
       <c r="B30" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
       <c r="G30" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H30" s="25"/>
-      <c r="I30" s="30"/>
-    </row>
-    <row r="31" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I30" s="85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="95.5" customHeight="1">
       <c r="B31" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
       <c r="G31" s="16" t="s">
         <v>108</v>
       </c>
       <c r="H31" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="I31" s="30"/>
-    </row>
-    <row r="32" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I31" s="85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="95.5" customHeight="1">
       <c r="B32" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
       <c r="G32" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H32" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="I32" s="30"/>
-    </row>
-    <row r="33" spans="2:9" s="1" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I32" s="85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" s="1" customFormat="1" ht="44.5" customHeight="1">
       <c r="B33" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="64" t="s">
+      <c r="E33" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="44" t="s">
+      <c r="G33" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-    </row>
-    <row r="34" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H33" s="64"/>
+      <c r="I33" s="87" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B34" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="72"/>
-    </row>
-    <row r="35" spans="2:9" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="C34" s="60"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="74"/>
+    </row>
+    <row r="35" spans="2:9" s="1" customFormat="1" ht="72">
       <c r="B35" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="10" t="s">
+      <c r="C35" s="60"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="H35" s="21" t="s">
+      <c r="H35" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="2:9" s="1" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I35" s="86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" s="1" customFormat="1" ht="68.25" customHeight="1">
       <c r="B36" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="48"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="56"/>
       <c r="G36" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I36" s="86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="18" customHeight="1">
       <c r="B37" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="46" t="s">
+      <c r="C37" s="60"/>
+      <c r="D37" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="E37" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="64" t="s">
+      <c r="F37" s="58" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="H37" s="3"/>
-      <c r="I37" s="70"/>
-    </row>
-    <row r="38" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I37" s="86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="18" customHeight="1">
       <c r="B38" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="64"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I38" s="70"/>
-    </row>
-    <row r="39" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I38" s="86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="36" customHeight="1">
       <c r="B39" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="46" t="s">
+      <c r="C39" s="60"/>
+      <c r="D39" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="46" t="s">
+      <c r="E39" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="46" t="s">
+      <c r="F39" s="54" t="s">
         <v>101</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H39" s="3"/>
-      <c r="I39" s="20"/>
-    </row>
-    <row r="40" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I39" s="86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="25" customHeight="1">
       <c r="B40" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="5" t="s">
+      <c r="C40" s="60"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="23" t="s">
+      <c r="H40" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I40" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="36" customHeight="1">
       <c r="B41" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="63" t="s">
+      <c r="C41" s="60"/>
+      <c r="D41" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="64" t="s">
+      <c r="E41" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="64" t="s">
+      <c r="F41" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="H41" s="24"/>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="2:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H41" s="47"/>
+      <c r="I41" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="58.5" customHeight="1">
       <c r="B42" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="4" t="s">
+      <c r="C42" s="60"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H42" s="24"/>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="2:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H42" s="47"/>
+      <c r="I42" s="86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="78.75" customHeight="1">
       <c r="B43" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="4" t="s">
+      <c r="C43" s="60"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="H43" s="24"/>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H43" s="47"/>
+      <c r="I43" s="86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="36" customHeight="1">
       <c r="B44" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="C44" s="52"/>
-      <c r="D44" s="44" t="s">
+      <c r="C44" s="60"/>
+      <c r="D44" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="46" t="s">
+      <c r="E44" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="H44" s="24"/>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H44" s="47"/>
+      <c r="I44" s="86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
       <c r="B45" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="C45" s="52"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="4" t="s">
+      <c r="C45" s="60"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="24" t="s">
+      <c r="H45" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I45" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="36" customHeight="1">
       <c r="B46" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="C46" s="52"/>
-      <c r="D46" s="44" t="s">
+      <c r="C46" s="60"/>
+      <c r="D46" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="46" t="s">
+      <c r="E46" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="F46" s="46" t="s">
+      <c r="F46" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="H46" s="24"/>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H46" s="47"/>
+      <c r="I46" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="36" customHeight="1">
       <c r="B47" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="4" t="s">
+      <c r="C47" s="60"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="24"/>
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="2:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="H47" s="47"/>
+      <c r="I47" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="72">
       <c r="B48" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="4" t="s">
+      <c r="C48" s="60"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="H48" s="24"/>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H48" s="47"/>
+      <c r="I48" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="36" customHeight="1">
       <c r="B49" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="C49" s="52"/>
-      <c r="D49" s="44" t="s">
+      <c r="C49" s="60"/>
+      <c r="D49" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="46" t="s">
+      <c r="E49" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="H49" s="24"/>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="2:9" ht="55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H49" s="47"/>
+      <c r="I49" s="86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="55" customHeight="1">
       <c r="B50" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="C50" s="52"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="4" t="s">
+      <c r="C50" s="60"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="H50" s="24"/>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="2:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="H50" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="I50" s="86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="72">
       <c r="B51" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="C51" s="52"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="4" t="s">
+      <c r="C51" s="60"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="H51" s="24"/>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="2:9" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="H51" s="47"/>
+      <c r="I51" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="54">
       <c r="B52" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="4" t="s">
+      <c r="C52" s="61"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="H52" s="24" t="s">
+      <c r="H52" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="2:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I52" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="88.5" customHeight="1">
       <c r="B53" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="C53" s="51" t="s">
+      <c r="C53" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="44" t="s">
+      <c r="D53" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="46" t="s">
+      <c r="E53" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="F53" s="46" t="s">
+      <c r="F53" s="54" t="s">
         <v>44</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>117</v>
       </c>
       <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="2:9" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I53" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="114" customHeight="1">
       <c r="B54" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="C54" s="52"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
       <c r="G54" s="8" t="s">
         <v>124</v>
       </c>
       <c r="H54" s="8"/>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="2:9" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="I54" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="54">
       <c r="B55" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="C55" s="52"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="49" t="s">
+      <c r="C55" s="60"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="F55" s="49" t="s">
+      <c r="F55" s="79" t="s">
         <v>46</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>118</v>
       </c>
       <c r="H55" s="8"/>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="2:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I55" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="35.5" customHeight="1">
       <c r="B56" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="52"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
       <c r="G56" s="8" t="s">
         <v>40</v>
       </c>
       <c r="H56" s="8"/>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="2:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="I56" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="72">
       <c r="B57" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="C57" s="52"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
       <c r="G57" s="8" t="s">
         <v>121</v>
       </c>
       <c r="H57" s="8"/>
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="2:9" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="I57" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="54">
       <c r="B58" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="C58" s="52"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="48"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="56"/>
       <c r="G58" s="8" t="s">
         <v>48</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="2:9" ht="92" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I58" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="92" customHeight="1">
       <c r="B59" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="C59" s="52"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="46" t="s">
+      <c r="C59" s="60"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="F59" s="46" t="s">
+      <c r="F59" s="54" t="s">
         <v>49</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="2:9" ht="114" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I59" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="114" customHeight="1">
       <c r="B60" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="C60" s="52"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
       <c r="G60" s="8" t="s">
         <v>123</v>
       </c>
       <c r="H60" s="8"/>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="I60" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="36">
       <c r="B61" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="C61" s="52"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="49" t="s">
+      <c r="C61" s="60"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="F61" s="49" t="s">
+      <c r="F61" s="79" t="s">
         <v>46</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>47</v>
       </c>
       <c r="H61" s="8"/>
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="2:9" ht="70" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I61" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="70" customHeight="1">
       <c r="B62" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="C62" s="52"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
       <c r="G62" s="8" t="s">
         <v>93</v>
       </c>
       <c r="H62" s="8"/>
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="2:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="I62" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="72">
       <c r="B63" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="C63" s="52"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
       <c r="G63" s="8" t="s">
         <v>104</v>
       </c>
       <c r="H63" s="8"/>
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="2:9" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="I63" s="86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="54">
       <c r="B64" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="C64" s="52"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="48"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="56"/>
       <c r="G64" s="8" t="s">
         <v>48</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="2:9" ht="64" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I64" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="64" customHeight="1">
       <c r="B65" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="C65" s="52"/>
-      <c r="D65" s="44" t="s">
+      <c r="C65" s="60"/>
+      <c r="D65" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E65" s="46" t="s">
+      <c r="E65" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="F65" s="46" t="s">
+      <c r="F65" s="54" t="s">
         <v>73</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>51</v>
       </c>
       <c r="H65" s="8"/>
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="2:9" ht="58" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I65" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="58" customHeight="1">
       <c r="B66" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="C66" s="52"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="50"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="78"/>
       <c r="G66" s="8" t="s">
         <v>52</v>
       </c>
       <c r="H66" s="8"/>
-      <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="2:9" ht="58" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I66" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="58" customHeight="1">
       <c r="B67" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="C67" s="52"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="49" t="s">
+      <c r="C67" s="60"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="79" t="s">
         <v>49</v>
       </c>
       <c r="G67" s="8" t="s">
         <v>84</v>
       </c>
       <c r="H67" s="8"/>
-      <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="2:9" ht="58" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I67" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="58" customHeight="1">
       <c r="B68" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="C68" s="52"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="50"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="78"/>
       <c r="G68" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H68" s="8"/>
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="2:9" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I68" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="49" customHeight="1">
       <c r="B69" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="C69" s="52"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="49" t="s">
+      <c r="C69" s="60"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="79" t="s">
         <v>88</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>53</v>
       </c>
       <c r="H69" s="8"/>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="2:9" ht="46" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I69" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="46" customHeight="1">
       <c r="B70" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="C70" s="52"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="50"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="78"/>
       <c r="G70" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H70" s="8"/>
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="2:9" ht="48.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I70" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="48.5" customHeight="1">
       <c r="B71" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="C71" s="52"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="49" t="s">
-        <v>89</v>
+      <c r="C71" s="60"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="79" t="s">
+        <v>61</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="H71" s="8"/>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="2:9" ht="59" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I71" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="59" customHeight="1">
       <c r="B72" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="C72" s="52"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="50"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="78"/>
       <c r="G72" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H72" s="8"/>
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="2:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I72" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="38.5" customHeight="1">
       <c r="B73" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="C73" s="52"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="49" t="s">
+      <c r="C73" s="60"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="79" t="s">
         <v>66</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>55</v>
       </c>
       <c r="H73" s="8"/>
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="2:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I73" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="38.5" customHeight="1">
       <c r="B74" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="52"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="50"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="78"/>
       <c r="G74" s="8" t="s">
         <v>90</v>
       </c>
       <c r="H74" s="8"/>
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="2:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I74" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="38.5" customHeight="1">
       <c r="B75" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="C75" s="52"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47" t="s">
-        <v>92</v>
+      <c r="C75" s="60"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55" t="s">
+        <v>69</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="H75" s="8"/>
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="2:9" ht="39.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I75" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="39.65" customHeight="1">
       <c r="B76" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="C76" s="52"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="48"/>
-      <c r="F76" s="48"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
       <c r="G76" s="8" t="s">
         <v>56</v>
       </c>
       <c r="H76" s="8"/>
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="2:9" ht="85" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I76" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="85" customHeight="1">
       <c r="B77" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="C77" s="52"/>
-      <c r="D77" s="44" t="s">
+      <c r="C77" s="60"/>
+      <c r="D77" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="E77" s="46" t="s">
+      <c r="E77" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="F77" s="46" t="s">
+      <c r="F77" s="54" t="s">
         <v>58</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>59</v>
       </c>
       <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-    </row>
-    <row r="78" spans="2:9" ht="107.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I77" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="107.5" customHeight="1">
       <c r="B78" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="C78" s="52"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="47"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="4" t="s">
+      <c r="C78" s="60"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="H78" s="24"/>
-      <c r="I78" s="6"/>
-    </row>
-    <row r="79" spans="2:9" ht="92.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H78" s="47"/>
+      <c r="I78" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="92.5" customHeight="1">
       <c r="B79" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="C79" s="52"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="46" t="s">
+      <c r="C79" s="60"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="G79" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="H79" s="23"/>
-      <c r="I79" s="6"/>
-    </row>
-    <row r="80" spans="2:9" ht="118" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H79" s="46"/>
+      <c r="I79" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="118" customHeight="1">
       <c r="B80" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="C80" s="52"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="47"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="4" t="s">
+      <c r="C80" s="60"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="H80" s="24"/>
-      <c r="I80" s="6"/>
-    </row>
-    <row r="81" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="H80" s="47"/>
+      <c r="I80" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" ht="36">
       <c r="B81" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="C81" s="52"/>
+      <c r="C81" s="60"/>
       <c r="D81" s="35" t="s">
         <v>63</v>
       </c>
@@ -7294,236 +10761,1954 @@
       <c r="F81" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="G81" s="11" t="s">
+      <c r="G81" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="H81" s="22"/>
-      <c r="I81" s="6"/>
-    </row>
-    <row r="82" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H81" s="43"/>
+      <c r="I81" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" ht="36" customHeight="1">
       <c r="B82" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="C82" s="52"/>
-      <c r="D82" s="44" t="s">
+      <c r="C82" s="60"/>
+      <c r="D82" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E82" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="F82" s="46" t="s">
+      <c r="E82" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="F82" s="54" t="s">
         <v>66</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>67</v>
       </c>
       <c r="H82" s="7"/>
-      <c r="I82" s="6"/>
-    </row>
-    <row r="83" spans="2:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I82" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" ht="95.5" customHeight="1">
       <c r="B83" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="C83" s="52"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="48"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="56"/>
       <c r="G83" s="8" t="s">
         <v>68</v>
       </c>
       <c r="H83" s="7"/>
-      <c r="I83" s="6"/>
-    </row>
-    <row r="84" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I83" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" ht="36" customHeight="1">
       <c r="B84" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="C84" s="52"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="46" t="s">
+      <c r="C84" s="60"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="54" t="s">
         <v>69</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>70</v>
       </c>
       <c r="H84" s="7"/>
-      <c r="I84" s="6"/>
-    </row>
-    <row r="85" spans="2:9" ht="95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I84" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" ht="95" customHeight="1">
       <c r="B85" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="C85" s="52"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="48"/>
+      <c r="C85" s="60"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="56"/>
       <c r="G85" s="8" t="s">
         <v>71</v>
       </c>
       <c r="H85" s="7"/>
-      <c r="I85" s="6"/>
-    </row>
-    <row r="86" spans="2:9" ht="62.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I85" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" ht="62.5" customHeight="1">
       <c r="B86" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="C86" s="52"/>
-      <c r="D86" s="44" t="s">
+      <c r="C86" s="60"/>
+      <c r="D86" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="E86" s="46" t="s">
+      <c r="E86" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="F86" s="46" t="s">
+      <c r="F86" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="G86" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="H86" s="24"/>
-      <c r="I86" s="6"/>
-    </row>
-    <row r="87" spans="2:9" ht="94" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H86" s="47"/>
+      <c r="I86" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" ht="94" customHeight="1">
       <c r="B87" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="C87" s="52"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="48"/>
-      <c r="G87" s="4" t="s">
+      <c r="C87" s="60"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="H87" s="24"/>
-      <c r="I87" s="6"/>
-    </row>
-    <row r="88" spans="2:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H87" s="47"/>
+      <c r="I87" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" ht="73.5" customHeight="1">
       <c r="B88" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="C88" s="52"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="46" t="s">
+      <c r="C88" s="60"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="G88" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="H88" s="24"/>
-      <c r="I88" s="6"/>
-    </row>
-    <row r="89" spans="2:9" ht="81" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H88" s="47"/>
+      <c r="I88" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" ht="81" customHeight="1">
       <c r="B89" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="C89" s="53"/>
-      <c r="D89" s="54"/>
-      <c r="E89" s="48"/>
-      <c r="F89" s="48"/>
-      <c r="G89" s="4" t="s">
+      <c r="C89" s="61"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="56"/>
+      <c r="G89" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="H89" s="24"/>
-      <c r="I89" s="6"/>
-    </row>
-    <row r="90" spans="2:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H89" s="47"/>
+      <c r="I89" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="100.5" customHeight="1">
       <c r="B90" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="C90" s="60" t="s">
+      <c r="C90" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="D90" s="63" t="s">
+      <c r="D90" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="E90" s="64" t="s">
+      <c r="E90" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="F90" s="64" t="s">
+      <c r="F90" s="58" t="s">
         <v>94</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>77</v>
       </c>
       <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-    </row>
-    <row r="91" spans="2:9" ht="131" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I90" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" ht="131" customHeight="1">
       <c r="B91" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="C91" s="61"/>
-      <c r="D91" s="63"/>
-      <c r="E91" s="64"/>
-      <c r="F91" s="64"/>
+      <c r="C91" s="76"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="58"/>
       <c r="G91" s="3" t="s">
         <v>78</v>
       </c>
       <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-    </row>
-    <row r="92" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="I91" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" ht="36">
       <c r="B92" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="C92" s="61"/>
-      <c r="D92" s="63" t="s">
+      <c r="C92" s="76"/>
+      <c r="D92" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="E92" s="64" t="s">
+      <c r="E92" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="F92" s="64" t="s">
+      <c r="F92" s="58" t="s">
         <v>80</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>81</v>
       </c>
       <c r="H92" s="7"/>
-      <c r="I92" s="6"/>
-    </row>
-    <row r="93" spans="2:9" ht="50.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I92" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" ht="50.5" customHeight="1">
       <c r="B93" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="C93" s="61"/>
-      <c r="D93" s="63"/>
-      <c r="E93" s="64"/>
-      <c r="F93" s="64"/>
+      <c r="C93" s="76"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="58"/>
       <c r="G93" s="7" t="s">
         <v>82</v>
       </c>
       <c r="H93" s="7"/>
-      <c r="I93" s="6"/>
-    </row>
-    <row r="94" spans="2:9" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="I93" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" ht="72">
       <c r="B94" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="C94" s="62"/>
-      <c r="D94" s="63"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="4" t="s">
+      <c r="C94" s="77"/>
+      <c r="D94" s="68"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="H94" s="24"/>
-      <c r="I94" s="6"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="86" t="s">
+        <v>260</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="83">
+  <mergeCells count="82">
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="D65:D76"/>
+    <mergeCell ref="E65:E76"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="C53:C89"/>
+    <mergeCell ref="D53:D64"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
     <mergeCell ref="D29:D32"/>
     <mergeCell ref="E29:E32"/>
     <mergeCell ref="F29:F32"/>
+    <mergeCell ref="C33:C52"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D19:D28"/>
+    <mergeCell ref="E19:E24"/>
     <mergeCell ref="F19:F24"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="D19:D28"/>
     <mergeCell ref="E25:E28"/>
+    <mergeCell ref="C3:C32"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D5:D11"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A09298-0F71-4963-8BFE-63280B4801A1}">
+  <dimension ref="B2:I94"/>
+  <sheetViews>
+    <sheetView zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" customWidth="1"/>
+    <col min="6" max="6" width="69" customWidth="1"/>
+    <col min="7" max="8" width="65.08203125" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="36" customHeight="1">
+      <c r="B3" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="2:9" ht="66" customHeight="1">
+      <c r="B4" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="81"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="2:9" ht="36">
+      <c r="B5" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="81"/>
+      <c r="D5" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="2:9" ht="73" customHeight="1">
+      <c r="B6" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="81"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="2:9" ht="84.75" customHeight="1">
+      <c r="B7" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="81"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="2:9" ht="108">
+      <c r="B8" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="81"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="2:9" ht="36">
+      <c r="B9" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="81"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="2:9" ht="103" customHeight="1">
+      <c r="B10" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="81"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="2:9" ht="103" customHeight="1">
+      <c r="B11" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="81"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="2:9" ht="36">
+      <c r="B12" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="81"/>
+      <c r="D12" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="2:9" ht="68.5" customHeight="1">
+      <c r="B13" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="81"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="2:9" ht="54">
+      <c r="B14" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="81"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="2:9" ht="54">
+      <c r="B15" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="81"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B16" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="81"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="30"/>
+    </row>
+    <row r="17" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B17" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="81"/>
+      <c r="D17" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="30"/>
+    </row>
+    <row r="18" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B18" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="81"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="30"/>
+    </row>
+    <row r="19" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B19" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="81"/>
+      <c r="D19" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B20" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="81"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B21" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="81"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B22" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="81"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B23" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="81"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B24" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="81"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="2:9" ht="115" customHeight="1">
+      <c r="B25" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="81"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="2:9" ht="115" customHeight="1">
+      <c r="B26" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="81"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="30"/>
+    </row>
+    <row r="27" spans="2:9" ht="115" customHeight="1">
+      <c r="B27" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="81"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="2:9" ht="115" customHeight="1">
+      <c r="B28" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="81"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="30"/>
+    </row>
+    <row r="29" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B29" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="81"/>
+      <c r="D29" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="30"/>
+    </row>
+    <row r="30" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B30" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="81"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="30"/>
+    </row>
+    <row r="31" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B31" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="81"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="I31" s="30"/>
+    </row>
+    <row r="32" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B32" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="82"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="I32" s="30"/>
+    </row>
+    <row r="33" spans="2:9" s="1" customFormat="1" ht="44.5" customHeight="1">
+      <c r="B33" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+    </row>
+    <row r="34" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="B34" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="60"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="65"/>
+    </row>
+    <row r="35" spans="2:9" s="1" customFormat="1" ht="72">
+      <c r="B35" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="60"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="2:9" s="1" customFormat="1" ht="68.25" customHeight="1">
+      <c r="B36" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="60"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="2:9" ht="18" customHeight="1">
+      <c r="B37" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="60"/>
+      <c r="D37" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="57"/>
+    </row>
+    <row r="38" spans="2:9" ht="18" customHeight="1">
+      <c r="B38" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="60"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" s="57"/>
+    </row>
+    <row r="39" spans="2:9" ht="36" customHeight="1">
+      <c r="B39" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="60"/>
+      <c r="D39" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="20"/>
+    </row>
+    <row r="40" spans="2:9" ht="25" customHeight="1">
+      <c r="B40" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" s="60"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="2:9" ht="36" customHeight="1">
+      <c r="B41" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="60"/>
+      <c r="D41" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H41" s="24"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="2:9" ht="58.5" customHeight="1">
+      <c r="B42" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="60"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="24"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="2:9" ht="78.75" customHeight="1">
+      <c r="B43" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" s="60"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H43" s="24"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="2:9" ht="36" customHeight="1">
+      <c r="B44" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" s="60"/>
+      <c r="D44" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="24"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" s="60"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="2:9" ht="36" customHeight="1">
+      <c r="B46" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="60"/>
+      <c r="D46" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="F46" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="24"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="2:9" ht="36" customHeight="1">
+      <c r="B47" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" s="60"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="24"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="2:9" ht="72">
+      <c r="B48" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" s="60"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="24"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="2:9" ht="36" customHeight="1">
+      <c r="B49" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" s="60"/>
+      <c r="D49" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="F49" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" s="24"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="2:9" ht="55" customHeight="1">
+      <c r="B50" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="60"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" s="24"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="2:9" ht="72">
+      <c r="B51" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="60"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H51" s="24"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="2:9" ht="54">
+      <c r="B52" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" s="61"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="2:9" ht="88.5" customHeight="1">
+      <c r="B53" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="2:9" ht="114" customHeight="1">
+      <c r="B54" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="60"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H54" s="8"/>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="2:9" ht="54">
+      <c r="B55" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" s="60"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="2:9" ht="35.5" customHeight="1">
+      <c r="B56" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" s="60"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="8"/>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="2:9" ht="72">
+      <c r="B57" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" s="60"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H57" s="8"/>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="2:9" ht="54">
+      <c r="B58" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C58" s="60"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="2:9" ht="92" customHeight="1">
+      <c r="B59" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="C59" s="60"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="2:9" ht="114" customHeight="1">
+      <c r="B60" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" s="60"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H60" s="8"/>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="2:9" ht="36">
+      <c r="B61" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="C61" s="60"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H61" s="8"/>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="2:9" ht="70" customHeight="1">
+      <c r="B62" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62" s="60"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H62" s="8"/>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="2:9" ht="72">
+      <c r="B63" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" s="60"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H63" s="8"/>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="2:9" ht="54">
+      <c r="B64" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" s="60"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="2:9" ht="64" customHeight="1">
+      <c r="B65" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" s="60"/>
+      <c r="D65" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="F65" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H65" s="8"/>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="2:9" ht="58" customHeight="1">
+      <c r="B66" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66" s="60"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H66" s="8"/>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="2:9" ht="58" customHeight="1">
+      <c r="B67" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="C67" s="60"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H67" s="8"/>
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="2:9" ht="58" customHeight="1">
+      <c r="B68" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C68" s="60"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H68" s="8"/>
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="2:9" ht="49" customHeight="1">
+      <c r="B69" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" s="60"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H69" s="8"/>
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="2:9" ht="46" customHeight="1">
+      <c r="B70" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" s="60"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="78"/>
+      <c r="G70" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H70" s="8"/>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="2:9" ht="48.5" customHeight="1">
+      <c r="B71" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="C71" s="60"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H71" s="8"/>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="2:9" ht="59" customHeight="1">
+      <c r="B72" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="C72" s="60"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="78"/>
+      <c r="G72" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H72" s="8"/>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="2:9" ht="38.5" customHeight="1">
+      <c r="B73" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" s="60"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H73" s="8"/>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="2:9" ht="38.5" customHeight="1">
+      <c r="B74" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" s="60"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H74" s="8"/>
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="2:9" ht="38.5" customHeight="1">
+      <c r="B75" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" s="60"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H75" s="8"/>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="2:9" ht="39.65" customHeight="1">
+      <c r="B76" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" s="60"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H76" s="8"/>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="2:9" ht="85" customHeight="1">
+      <c r="B77" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="C77" s="60"/>
+      <c r="D77" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E77" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="F77" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="2:9" ht="107.5" customHeight="1">
+      <c r="B78" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="C78" s="60"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H78" s="24"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="2:9" ht="92.5" customHeight="1">
+      <c r="B79" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="C79" s="60"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H79" s="23"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="2:9" ht="118" customHeight="1">
+      <c r="B80" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80" s="60"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H80" s="24"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="2:9" ht="36">
+      <c r="B81" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="C81" s="60"/>
+      <c r="D81" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E81" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="F81" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H81" s="22"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="2:9" ht="36" customHeight="1">
+      <c r="B82" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="C82" s="60"/>
+      <c r="D82" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E82" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="F82" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H82" s="7"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B83" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" s="60"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H83" s="7"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="2:9" ht="36" customHeight="1">
+      <c r="B84" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="C84" s="60"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H84" s="7"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="2:9" ht="95" customHeight="1">
+      <c r="B85" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="C85" s="60"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="56"/>
+      <c r="G85" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H85" s="7"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="2:9" ht="62.5" customHeight="1">
+      <c r="B86" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="C86" s="60"/>
+      <c r="D86" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E86" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="F86" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H86" s="24"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="2:9" ht="94" customHeight="1">
+      <c r="B87" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="C87" s="60"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H87" s="24"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="2:9" ht="73.5" customHeight="1">
+      <c r="B88" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="C88" s="60"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H88" s="24"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="2:9" ht="81" customHeight="1">
+      <c r="B89" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="C89" s="61"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="56"/>
+      <c r="G89" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H89" s="24"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="2:9" ht="100.5" customHeight="1">
+      <c r="B90" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="C90" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="D90" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="E90" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="F90" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="2:9" ht="131" customHeight="1">
+      <c r="B91" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="C91" s="76"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="58"/>
+      <c r="G91" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+    </row>
+    <row r="92" spans="2:9" ht="36">
+      <c r="B92" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="C92" s="76"/>
+      <c r="D92" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="E92" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="F92" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H92" s="7"/>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="2:9" ht="50.5" customHeight="1">
+      <c r="B93" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="C93" s="76"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H93" s="7"/>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="2:9" ht="72">
+      <c r="B94" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="C94" s="77"/>
+      <c r="D94" s="68"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H94" s="24"/>
+      <c r="I94" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="83">
+    <mergeCell ref="C3:C32"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="C53:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="E65:E76"/>
+    <mergeCell ref="D65:D76"/>
+    <mergeCell ref="D53:D64"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F37:F38"/>
     <mergeCell ref="D12:D16"/>
     <mergeCell ref="D5:D11"/>
     <mergeCell ref="I37:I38"/>
@@ -7540,63 +12725,16 @@
     <mergeCell ref="E49:E52"/>
     <mergeCell ref="D49:D52"/>
     <mergeCell ref="H33:H34"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="E77:E80"/>
-    <mergeCell ref="E65:E76"/>
-    <mergeCell ref="D65:D76"/>
-    <mergeCell ref="D53:D64"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C3:C32"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="C53:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="D19:D28"/>
+    <mergeCell ref="E25:E28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7607,12 +12745,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="42a61f6c-c59c-42a4-a645-ef628d67d90a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f7d62ce6-85b2-47d4-aed3-b6ad05956793">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7821,20 +12961,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="42a61f6c-c59c-42a4-a645-ef628d67d90a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f7d62ce6-85b2-47d4-aed3-b6ad05956793">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07B79634-3F75-44E6-8875-C9CD5ACC8C5C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F142F9F-EC10-46B2-90E7-713CF6987131}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="42a61f6c-c59c-42a4-a645-ef628d67d90a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f7d62ce6-85b2-47d4-aed3-b6ad05956793"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7859,18 +13006,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F142F9F-EC10-46B2-90E7-713CF6987131}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07B79634-3F75-44E6-8875-C9CD5ACC8C5C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="42a61f6c-c59c-42a4-a645-ef628d67d90a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f7d62ce6-85b2-47d4-aed3-b6ad05956793"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Acceptance-Test-Item-list.xlsx
+++ b/Acceptance-Test-Item-list.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r23600282\random-grouping-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4154887-B519-4814-ABC6-72F46D6FC5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B080B57B-2D75-4BFD-AA5D-5356116C698F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2C3B6304-3D18-4260-875D-1181E531DC78}"/>
   </bookViews>
   <sheets>
-    <sheet name="20221222テストケースマトリクス" sheetId="2" r:id="rId1"/>
-    <sheet name="テストケースマトリクス" sheetId="1" r:id="rId2"/>
+    <sheet name="20221223テストケースマトリクス" sheetId="3" r:id="rId1"/>
+    <sheet name="20221222テストケースマトリクス" sheetId="2" r:id="rId2"/>
+    <sheet name="テストケースマトリクス" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,6 +36,34 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B3F805DB-9CFD-4D74-A193-7861A54AF965}</author>
+    <author>tc={73B3AC1D-1DEF-47C1-B8BA-84B3B932F944}</author>
+  </authors>
+  <commentList>
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{B3F805DB-9CFD-4D74-A193-7861A54AF965}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    上下の中項目と同様な書き方に揃えてください。
+前後の書き方は「グループ数がXX」と書かれています</t>
+      </text>
+    </comment>
+    <comment ref="E46" authorId="1" shapeId="0" xr:uid="{73B3AC1D-1DEF-47C1-B8BA-84B3B932F944}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    中項目の「グループ数が空」を行う→前提条件のURLにアクセスするも含むので２重になっています</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={496C609A-70F9-4B08-B1A8-718012DDC9FF}</author>
@@ -62,7 +91,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={63037488-24ED-4E03-B98E-0BD8CC08A270}</author>
@@ -91,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="262">
   <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
@@ -2231,7 +2260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2382,6 +2411,105 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2394,49 +2522,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2454,47 +2546,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2534,7 +2590,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AABFEAA-6043-4BF9-8B66-3005BCAFBE68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C448C2B7-12F7-4C9F-BC43-779A1FD6A543}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2550,8 +2606,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19331552" y="459362"/>
-          <a:ext cx="4947065" cy="459361"/>
+          <a:off x="19328039" y="457200"/>
+          <a:ext cx="4948011" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2578,7 +2634,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7913AD7-63F9-431F-AD40-91A343A589A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7CBAD82-903C-4FED-B7F0-861BDAA39D93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2622,7 +2678,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08174CB4-68B0-4A47-BB4A-38A9792A349E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E86975C-EAEC-462C-B09A-913D0E76EB30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2666,7 +2722,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{755A8703-C898-4FB7-B4B4-FC9533D79D9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20501237-8D85-47BF-984D-1FFA0FF1551C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2766,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4187A39-1D79-4D22-94BD-D710FD42E2AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969724C6-4DB5-41CC-ACAC-43724ABCC7BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2754,7 +2810,7 @@
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D7EA6B-85FF-407B-9BE8-D785A609A4DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24ABDAC3-BC74-470F-B686-0A18C8067892}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2854,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA48D2B7-2771-4672-B668-6F67EF1A8CEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC4BA13-3164-4AC8-AD83-AE8FC3B56357}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2842,7 +2898,7 @@
         <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA8A7B46-2B57-4401-8995-B66E1824316F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B287C2BE-70B8-490B-B966-062FF1260427}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2886,7 +2942,7 @@
         <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9190C50C-95BA-4D16-B1E6-BF21970CEAF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{643D0BDE-1DB5-459F-953F-8EA20B417610}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2930,7 +2986,7 @@
         <xdr:cNvPr id="11" name="図 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B97642-CAA9-47CC-8FC5-93C0FD5B32DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB26ADD-57A1-4F87-A1E6-B46999213224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2974,7 +3030,7 @@
         <xdr:cNvPr id="12" name="図 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{725135B9-8B0B-41B9-99DA-D7103A96317F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C8C9048-23D1-4070-83D6-75F67CB1E1F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3018,7 +3074,7 @@
         <xdr:cNvPr id="13" name="図 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6067B4A8-6812-4428-A759-DDE39EFB93FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A198EE5-F3DE-4E20-BD0E-9449898B50F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3062,7 +3118,7 @@
         <xdr:cNvPr id="14" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{165E0F3B-3EC5-41FC-AD99-F5857F0573C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8263C9B-ADA1-486A-A708-A84C1827A5F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3106,7 +3162,7 @@
         <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32579B58-F64B-46E8-B886-CF0D542D54E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64BECF2-D3E9-4A17-A2A3-610B0EC6F3D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3150,7 +3206,7 @@
         <xdr:cNvPr id="16" name="図 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADB87D0-EB50-4A92-96A8-1760B418F932}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1FE3083-7CF6-45A9-88F1-68F2103B1235}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3194,7 +3250,7 @@
         <xdr:cNvPr id="17" name="図 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{951C9680-0021-4FDD-82BD-5EB9E25F8C27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFDA5F64-AD0E-4E03-8D0D-A90980CDB83B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3238,7 +3294,7 @@
         <xdr:cNvPr id="18" name="図 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4884B93E-0B1B-4526-A769-DACBD2A69E73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1E17219-F955-4EA4-A324-9F77F35DD962}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3282,7 +3338,7 @@
         <xdr:cNvPr id="19" name="図 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661AD315-7947-4D5A-9A58-1DBE1D324222}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DB10280-6362-48A4-9B2B-5A1220BFE6F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3326,7 +3382,7 @@
         <xdr:cNvPr id="20" name="図 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F8D9A8D-51B1-4422-8749-4114C106C76E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{178C4470-8E9F-473B-9AD2-68A37DC9D4E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3370,7 +3426,7 @@
         <xdr:cNvPr id="21" name="図 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{369797B7-DBEE-43AF-A2A2-C57F3A094B38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE7CEDB0-DEBC-405F-96D9-42AC9805D0B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3414,7 +3470,7 @@
         <xdr:cNvPr id="22" name="図 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F17C32-AA02-4741-B269-EC232ADA92D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB7EA352-2AA1-409D-9C7B-2E42745B43FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3458,7 +3514,7 @@
         <xdr:cNvPr id="23" name="図 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C920EC-67AC-4EF3-B4A0-7DAAC3B27C22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38AAF59B-2C9A-442A-AD04-E694BAFC7965}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3502,7 +3558,7 @@
         <xdr:cNvPr id="24" name="図 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{283D72C6-3B6C-4FE9-A30E-B412F65A672D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67730D47-E629-488F-BC2F-F3FEF2003CA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3546,7 +3602,7 @@
         <xdr:cNvPr id="25" name="図 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D66943-BB83-4F6F-B6BC-BEB949C7491F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95DB0EB6-DB04-4596-8CA3-2E3633916040}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3590,7 +3646,7 @@
         <xdr:cNvPr id="26" name="図 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{675B39D6-004A-4403-9583-F43206E869E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C03829-0725-4190-A80E-C4B842021B74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3634,7 +3690,7 @@
         <xdr:cNvPr id="27" name="図 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4494CD93-DC5D-4E43-91C0-3A9A27264AB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A371133-133E-4AA5-9B84-AE9BC4785DF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3678,7 +3734,7 @@
         <xdr:cNvPr id="28" name="図 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A130DCD0-16E2-46F5-A953-4D97E6235DF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28EC29CF-F247-4B36-9806-7F31E45F6297}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3722,7 +3778,7 @@
         <xdr:cNvPr id="29" name="図 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D4EDBD9-E4E1-425D-9DB2-41B8D1AF47A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C826B1B5-7600-4AF6-AF23-0C754FEBCF40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3766,7 +3822,7 @@
         <xdr:cNvPr id="30" name="図 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDFFEB8B-726C-46D4-957E-2E4C2138DA11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93A36A88-DBDD-4527-9C7B-A0CC6BB544A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3810,7 +3866,7 @@
         <xdr:cNvPr id="31" name="図 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{002A8BEA-F1E4-4325-8C1E-ED455F66E893}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC16D2D7-44F1-4F21-8CF1-AFFE3211DF1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3854,7 +3910,7 @@
         <xdr:cNvPr id="32" name="図 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B89F76B1-330F-4605-8CFE-D5F15EF6CC65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E9DF1C-7668-4F80-B9A0-E53A9357359A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3898,7 +3954,7 @@
         <xdr:cNvPr id="33" name="図 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABBCDD03-85DB-46C4-8F9D-80E05C737CFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67ED185D-86F3-4466-B99F-29E1F63F4968}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3942,7 +3998,7 @@
         <xdr:cNvPr id="34" name="図 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{191C394B-CB78-418B-844C-D97D5FE204DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54AEB4A1-2736-4430-A9E7-FA847055B712}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3986,7 +4042,7 @@
         <xdr:cNvPr id="35" name="図 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B3B2E87-FEDF-483C-B31B-6677D555C46B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DC3C43-2522-497D-AC18-1BDF99135ADC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4030,7 +4086,7 @@
         <xdr:cNvPr id="36" name="図 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F5302A-5032-4F1A-9019-59C7669CB27A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1251F93-A2AA-4173-9F05-6B84842D08C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4074,7 +4130,7 @@
         <xdr:cNvPr id="37" name="図 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73C8779-E7A0-49E9-BDE9-9A113D2110B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C681A97C-A8AD-491A-A68D-B848CBA23FFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4118,7 +4174,7 @@
         <xdr:cNvPr id="38" name="図 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB5199A-79FF-43FE-A461-7DD5B0D66E7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB204DE6-4E93-4E5B-A801-565A5D2BE701}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4162,7 +4218,7 @@
         <xdr:cNvPr id="39" name="図 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8EFBB0F-AD3F-48F2-AC4B-484F94D3874E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F839FBDB-5083-451E-8019-A49DF931306B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4206,7 +4262,7 @@
         <xdr:cNvPr id="40" name="図 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A28450B-72A5-4D17-9B3A-C59B91480501}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7D9934C-D2CF-4C59-9DCA-552941489546}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4250,7 +4306,7 @@
         <xdr:cNvPr id="41" name="図 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1199E76-BA30-4118-9DA2-2CDAA02951B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{541065F2-1090-4BAD-95FF-4B645282A16C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4294,7 +4350,7 @@
         <xdr:cNvPr id="42" name="図 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E00058-AAEA-4E48-AC6B-6135EBE1A0DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653B7050-49B7-48A3-BB87-8D7D0D2A1728}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4338,7 +4394,7 @@
         <xdr:cNvPr id="43" name="図 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE3A5E6-9601-4A1A-AAE5-A3E013215B3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF8913B-742E-4660-8564-BA84D5CEC66B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4382,7 +4438,7 @@
         <xdr:cNvPr id="44" name="図 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADD0A51B-52D6-4B78-982D-F25AE34F38A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913EFE50-EE85-446D-9140-D6D77002C3CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4426,7 +4482,7 @@
         <xdr:cNvPr id="45" name="図 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B0C5BE-DE8A-4049-B93C-5AC865F41614}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A0ACD55-7D13-4C0B-B3E1-F39401A164F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4470,7 +4526,7 @@
         <xdr:cNvPr id="46" name="図 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A351B1-E5EF-43EE-ADA2-110E7541BB08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CD4CBBD-6CC9-41BC-8D8C-FDA3EC9B95B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4514,7 +4570,7 @@
         <xdr:cNvPr id="47" name="図 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61316289-47BD-4F8E-8898-6AD387C2F623}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7173163F-17FE-4635-8ADF-D1E9810838BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4558,7 +4614,7 @@
         <xdr:cNvPr id="48" name="図 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABEAAA10-C936-4DF1-AD56-0555B266AD74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F610C8E-5947-45CC-A038-6652A383F8C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4602,7 +4658,7 @@
         <xdr:cNvPr id="49" name="図 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25090A55-200B-48E7-9313-648270199021}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAB0D734-EA69-4ED2-A808-3CED661989D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4646,7 +4702,7 @@
         <xdr:cNvPr id="50" name="図 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FE63FEC-FCDE-49D0-8542-03B72C530CD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6BC688-385E-404C-AC0C-0FA85C90C248}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4690,7 +4746,7 @@
         <xdr:cNvPr id="51" name="図 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D66532F-F052-4EC2-81C0-7A2A063647FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C81A3185-D748-45A2-A9C0-7FF5B3F38D5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4734,7 +4790,7 @@
         <xdr:cNvPr id="52" name="図 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E517477-88AF-4863-8222-C094B7A3F662}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7CB9A44-8D74-47C3-8A1D-F40FCDDCBD47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4778,7 +4834,7 @@
         <xdr:cNvPr id="53" name="図 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841B1D2C-059D-4FD8-B833-AEA990F85317}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7A8BA6-664D-4F99-83A9-3689CC9A6CFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4822,7 +4878,7 @@
         <xdr:cNvPr id="54" name="図 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6ED26D-FDB7-4430-91B4-3E87FE9A9F1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F75405D9-8C52-410E-B734-C55FDF6006DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4866,7 +4922,7 @@
         <xdr:cNvPr id="55" name="図 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA3FCA26-FCEA-47BB-B868-8AEB39B69B79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{949501E7-C278-40F4-BD87-6EC1168EE997}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4910,7 +4966,7 @@
         <xdr:cNvPr id="56" name="図 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D0A05D-B26A-4C60-8013-BD4CD2A878A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38518240-87EA-4478-BA2E-D283FBAA13F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4954,7 +5010,7 @@
         <xdr:cNvPr id="57" name="図 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD11712-F647-424F-A011-1BC19211287D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3581B69C-5574-4CDA-8AEB-713B062B7F84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4998,7 +5054,7 @@
         <xdr:cNvPr id="58" name="図 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCCAE6F6-73F0-413A-B734-7ED49DE37DAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD474E6-4586-4CC1-B3E1-88E41088A698}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5042,7 +5098,7 @@
         <xdr:cNvPr id="59" name="図 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F69D2DB-737A-44B4-8E19-D766A7E7696B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2085A7EF-28F5-4484-ABEB-015B0937ADFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5086,7 +5142,7 @@
         <xdr:cNvPr id="60" name="図 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E131DD0-D5B7-4E9C-AF95-F6FE898FE094}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A248850-CF13-423D-8779-3707BA4916BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5130,7 +5186,7 @@
         <xdr:cNvPr id="61" name="図 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD47CF1C-13CF-4BD2-9479-07E45EC46CB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{084DFF4F-8C52-4FE7-AAF0-70B8C2A35479}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5174,7 +5230,7 @@
         <xdr:cNvPr id="62" name="図 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{474F1FF3-C593-42B6-A4B4-9FC5A36CB123}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B29D6C09-B061-4972-A24D-3BD3C2E12635}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5218,7 +5274,7 @@
         <xdr:cNvPr id="63" name="図 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F26143-F0D0-45F6-8D31-AFEC589F79CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F9F37C4-113F-48B8-8B26-F315C980D0E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5262,7 +5318,7 @@
         <xdr:cNvPr id="64" name="図 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED150D2-227C-4B8A-8D9B-671401B7641E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B226B017-E2C5-4442-93DA-97E3DCFCFC4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5306,7 +5362,7 @@
         <xdr:cNvPr id="65" name="図 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22B62A5-7BA6-4121-B719-54B1DD6CFBC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6060AD0-8FD9-4B52-A289-1B5AECE893F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5350,7 +5406,7 @@
         <xdr:cNvPr id="66" name="図 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2A052EB-11E4-4371-897A-6299BD21F417}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9751C8D7-60E5-4BDA-B633-8D774261EEE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5394,7 +5450,7 @@
         <xdr:cNvPr id="67" name="図 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{586E263C-37E1-41EE-AE74-DF181FCCD839}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB0AAACC-1905-4B46-939A-5EC0C04C10FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5438,7 +5494,7 @@
         <xdr:cNvPr id="68" name="図 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17732384-949A-4A3B-8B3D-756293AE24F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B2CBAA-E107-46F8-995D-D3ED85C5BF11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5482,7 +5538,7 @@
         <xdr:cNvPr id="69" name="図 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C017A0-EF6D-41B9-9AA6-006CC7676B20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA5D0D41-45E6-4D90-A844-EDF757E15EBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5526,7 +5582,7 @@
         <xdr:cNvPr id="70" name="図 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00675959-3668-4D62-8669-3EE4F7B303F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA99A5A4-4D7F-43C4-983D-43CDEE55987A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5570,7 +5626,7 @@
         <xdr:cNvPr id="71" name="図 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B1044B4-E1B3-44AF-9232-9A1198A2D23F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02074B8-1527-461F-BE11-A65AB21E9C5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5614,7 +5670,7 @@
         <xdr:cNvPr id="72" name="図 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{245CABB8-A4C1-46DA-BA75-7F0E272CC8D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C945E54-5B76-4C19-90D7-5162CC8DE479}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5658,7 +5714,7 @@
         <xdr:cNvPr id="73" name="図 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FBC4B1-DBBB-4B9B-A2CC-89BE539C9E4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3736D215-35E1-4EEF-9544-E4FF3664D11A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5702,7 +5758,7 @@
         <xdr:cNvPr id="74" name="図 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF8C3DF0-352D-4B76-9AB0-7CD8A581530B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A19F8E1-1D9F-4B0E-A3E1-BED1391E3A1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5732,6 +5788,3223 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11339</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AABFEAA-6043-4BF9-8B66-3005BCAFBE68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19331552" y="459362"/>
+          <a:ext cx="4947065" cy="459361"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30842</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2410278</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7913AD7-63F9-431F-AD40-91A343A589A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19347542" y="925739"/>
+          <a:ext cx="2379436" cy="779236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>27668</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1913165</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>448581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08174CB4-68B0-4A47-BB4A-38A9792A349E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19344368" y="1778453"/>
+          <a:ext cx="1885497" cy="422728"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8590</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>11339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>543478</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>925721</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{755A8703-C898-4FB7-B4B4-FC9533D79D9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19325290" y="2221139"/>
+          <a:ext cx="534888" cy="914382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56696</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>17496</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1469735</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>447221</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4187A39-1D79-4D22-94BD-D710FD42E2AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19373396" y="5599146"/>
+          <a:ext cx="1413039" cy="429725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56695</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>16001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1607144</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D7EA6B-85FF-407B-9BE8-D785A609A4DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19373395" y="8671051"/>
+          <a:ext cx="1550449" cy="441199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>682853</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA48D2B7-2771-4672-B668-6F67EF1A8CEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19362057" y="9169493"/>
+          <a:ext cx="637496" cy="812708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45356</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>41586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>865697</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>226785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA8A7B46-2B57-4401-8995-B66E1824316F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19362056" y="33004436"/>
+          <a:ext cx="820341" cy="750349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>35723</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>524012</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9190C50C-95BA-4D16-B1E6-BF21970CEAF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19352423" y="35545939"/>
+          <a:ext cx="488289" cy="217261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>29594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1216533</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B97642-CAA9-47CC-8FC5-93C0FD5B32DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19396075" y="36021394"/>
+          <a:ext cx="1137158" cy="427607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>55266</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>22678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1105351</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{725135B9-8B0B-41B9-99DA-D7103A96317F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19371966" y="36789178"/>
+          <a:ext cx="1050085" cy="434523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68034</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>22166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2293898</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>740203</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6067B4A8-6812-4428-A759-DDE39EFB93FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19384734" y="37245866"/>
+          <a:ext cx="2225864" cy="718037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>37713</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1106238</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{165E0F3B-3EC5-41FC-AD99-F5857F0573C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19354413" y="38000668"/>
+          <a:ext cx="1068525" cy="962932"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>102053</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>22679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>583992</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>244477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32579B58-F64B-46E8-B886-CF0D542D54E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19418753" y="38986279"/>
+          <a:ext cx="481939" cy="221798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68034</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>23980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1283678</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADB87D0-EB50-4A92-96A8-1760B418F932}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19384734" y="39673380"/>
+          <a:ext cx="1215644" cy="433221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45356</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>14876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1379754</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>457028</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{951C9680-0021-4FDD-82BD-5EB9E25F8C27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19362056" y="40121476"/>
+          <a:ext cx="1334398" cy="442152"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>75426</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>64861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>873125</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>792683</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4884B93E-0B1B-4526-A769-DACBD2A69E73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19392126" y="40628661"/>
+          <a:ext cx="797699" cy="727822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68034</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>18313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1688308</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661AD315-7947-4D5A-9A58-1DBE1D324222}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19384734" y="41496513"/>
+          <a:ext cx="1620274" cy="438888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>34018</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>22678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1362066</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>467723</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F8D9A8D-51B1-4422-8749-4114C106C76E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19350718" y="41958078"/>
+          <a:ext cx="1328048" cy="445045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>29795</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>22678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1206638</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{369797B7-DBEE-43AF-A2A2-C57F3A094B38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19346495" y="42656578"/>
+          <a:ext cx="1176843" cy="893286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>46751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1905961</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F17C32-AA02-4741-B269-EC232ADA92D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19396075" y="44280851"/>
+          <a:ext cx="1826586" cy="1077199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45356</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>58000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1131874</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C920EC-67AC-4EF3-B4A0-7DAAC3B27C22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19362056" y="45416050"/>
+          <a:ext cx="1086518" cy="1389801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>23900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1506389</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>450396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{283D72C6-3B6C-4FE9-A30E-B412F65A672D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19396075" y="46829750"/>
+          <a:ext cx="1427014" cy="426496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56695</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>18814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1292678</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>425808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D66943-BB83-4F6F-B6BC-BEB949C7491F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19373395" y="47510464"/>
+          <a:ext cx="1235983" cy="406994"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>54052</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>45356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1097709</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>1564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{675B39D6-004A-4403-9583-F43206E869E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19370752" y="47987856"/>
+          <a:ext cx="1043657" cy="870608"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>150585</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>53522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1970821</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>1135710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4494CD93-DC5D-4E43-91C0-3A9A27264AB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19467285" y="49596222"/>
+          <a:ext cx="1820236" cy="1082188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>56696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1131875</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A130DCD0-16E2-46F5-A953-4D97E6235DF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19362057" y="50767796"/>
+          <a:ext cx="1086518" cy="1391511"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>37494</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>11340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1417489</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>426497</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D4EDBD9-E4E1-425D-9DB2-41B8D1AF47A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19354194" y="52170240"/>
+          <a:ext cx="1379995" cy="415157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56697</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>113393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1292680</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>526737</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDFFEB8B-726C-46D4-957E-2E4C2138DA11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19373397" y="52729493"/>
+          <a:ext cx="1235983" cy="413344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>34017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1116682</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>903967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{002A8BEA-F1E4-4325-8C1E-ED455F66E893}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19396075" y="53539117"/>
+          <a:ext cx="1037307" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>90715</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>45358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1610179</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>735128</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B89F76B1-330F-4605-8CFE-D5F15EF6CC65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19407415" y="55150658"/>
+          <a:ext cx="1519464" cy="689770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>34017</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>11340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1666874</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>713091</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABBCDD03-85DB-46C4-8F9D-80E05C737CFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19350717" y="55929440"/>
+          <a:ext cx="1632857" cy="701751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11339</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1530803</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>717438</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{191C394B-CB78-418B-844C-D97D5FE204DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19328039" y="56688718"/>
+          <a:ext cx="1519464" cy="683420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19503</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1665060</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>1891</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B3B2E87-FEDF-483C-B31B-6677D555C46B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19336203" y="57425318"/>
+          <a:ext cx="1645557" cy="704473"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>64862</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>8166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1344385</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>2035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F5302A-5032-4F1A-9019-59C7669CB27A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19381562" y="58136066"/>
+          <a:ext cx="1279523" cy="616169"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56696</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>22678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1326694</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>1200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73C8779-E7A0-49E9-BDE9-9A113D2110B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19373396" y="59357078"/>
+          <a:ext cx="1269998" cy="594472"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>105228</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1054553</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>543732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB5199A-79FF-43FE-A461-7DD5B0D66E7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19421928" y="58810071"/>
+          <a:ext cx="949325" cy="483861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>619932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8EFBB0F-AD3F-48F2-AC4B-484F94D3874E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19396075" y="60086421"/>
+          <a:ext cx="958850" cy="483861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>22679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1973036</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>464471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="図 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A28450B-72A5-4D17-9B3A-C59B91480501}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19392901" y="60722329"/>
+          <a:ext cx="1896835" cy="441792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>22680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1283153</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>463785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1199E76-BA30-4118-9DA2-2CDAA02951B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19396075" y="61211280"/>
+          <a:ext cx="1203778" cy="441105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>11339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1942192</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>456306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="図 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E00058-AAEA-4E48-AC6B-6135EBE1A0DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19362057" y="61688889"/>
+          <a:ext cx="1896835" cy="444967"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1245960</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>486462</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE3A5E6-9601-4A1A-AAE5-A3E013215B3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19362057" y="62211857"/>
+          <a:ext cx="1200603" cy="441105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45358</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>22680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2066925</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>993236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="図 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADD0A51B-52D6-4B78-982D-F25AE34F38A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19362058" y="62690830"/>
+          <a:ext cx="2021567" cy="970556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22678</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1037085</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>1341210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B0C5BE-DE8A-4049-B93C-5AC865F41614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19339378" y="63823849"/>
+          <a:ext cx="1014407" cy="1265011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2066924</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>1058095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="図 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A351B1-E5EF-43EE-ADA2-110E7541BB08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19362057" y="65203614"/>
+          <a:ext cx="2021567" cy="967381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1059764</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>1336221</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="図 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61316289-47BD-4F8E-8898-6AD387C2F623}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19362057" y="66355685"/>
+          <a:ext cx="1014407" cy="1268186"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56698</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1569812</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>428876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="図 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABEAAA10-C936-4DF1-AD56-0555B266AD74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19373398" y="67831607"/>
+          <a:ext cx="1513114" cy="383519"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>102054</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>11340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1286329</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>428305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="図 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25090A55-200B-48E7-9313-648270199021}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19418754" y="68254790"/>
+          <a:ext cx="1184275" cy="416965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>11339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>944335</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>1149989</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="図 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FE63FEC-FCDE-49D0-8542-03B72C530CD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19396075" y="68711989"/>
+          <a:ext cx="864960" cy="1138650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>34018</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>22679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1211943</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>445994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="図 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D66532F-F052-4EC2-81C0-7A2A063647FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19350718" y="69936179"/>
+          <a:ext cx="1177925" cy="423315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22679</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>887639</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>1180832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="図 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E517477-88AF-4863-8222-C094B7A3F662}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19339379" y="70416057"/>
+          <a:ext cx="864960" cy="1135475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22679</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2332760</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>592818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="図 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841B1D2C-059D-4FD8-B833-AEA990F85317}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19339379" y="71611218"/>
+          <a:ext cx="2310081" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1201964</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>1131190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="図 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6ED26D-FDB7-4430-91B4-3E87FE9A9F1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19396075" y="72416307"/>
+          <a:ext cx="1122589" cy="1085833"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22679</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>113393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2332760</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>675368</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="図 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA3FCA26-FCEA-47BB-B868-8AEB39B69B79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19339379" y="73678143"/>
+          <a:ext cx="2310081" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>34018</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>22679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1036051</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>1001033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="図 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D0A05D-B26A-4C60-8013-BD4CD2A878A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19350718" y="74520879"/>
+          <a:ext cx="1002033" cy="978354"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>192768</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>147410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1436493</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>1247321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="図 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD11712-F647-424F-A011-1BC19211287D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19509468" y="75674310"/>
+          <a:ext cx="1243725" cy="1099911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>56697</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1448783</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1511300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="図 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCCAE6F6-73F0-413A-B734-7ED49DE37DAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19384736" y="76859947"/>
+          <a:ext cx="1380747" cy="1454603"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19505</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>27668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1707243</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>435147</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="図 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F69D2DB-737A-44B4-8E19-D766A7E7696B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19336205" y="78494618"/>
+          <a:ext cx="1687738" cy="407479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30844</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>48532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1607003</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>619656</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="図 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E131DD0-D5B7-4E9C-AF95-F6FE898FE094}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19347544" y="78972682"/>
+          <a:ext cx="1576159" cy="571124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1838415</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>847764</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="図 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD47CF1C-13CF-4BD2-9479-07E45EC46CB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19396075" y="79644875"/>
+          <a:ext cx="1759040" cy="768389"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>64795</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>923277</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1106669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="図 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{474F1FF3-C593-42B6-A4B4-9FC5A36CB123}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19381495" y="11366758"/>
+          <a:ext cx="858482" cy="1093711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38878</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>51837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1865464</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1135710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="図 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F26143-F0D0-45F6-8D31-AFEC589F79CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19355578" y="6090687"/>
+          <a:ext cx="1826586" cy="1083873"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220306</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>755194</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>998746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="図 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED150D2-227C-4B8A-8D9B-671401B7641E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19537006" y="7437664"/>
+          <a:ext cx="534888" cy="908032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>64796</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>207347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50282</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>657743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="図 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22B62A5-7BA6-4121-B719-54B1DD6CFBC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19381496" y="12773997"/>
+          <a:ext cx="4944836" cy="450396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>51837</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>129592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2431273</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>902478</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="図 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2A052EB-11E4-4371-897A-6299BD21F417}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19368537" y="13909092"/>
+          <a:ext cx="2379436" cy="772886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>207347</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2096019</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>507092</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="図 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{586E263C-37E1-41EE-AE74-DF181FCCD839}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19524047" y="15083064"/>
+          <a:ext cx="1888672" cy="416378"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>168470</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>194387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>697008</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1105594</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="図 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17732384-949A-4A3B-8B3D-756293AE24F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19485170" y="16399587"/>
+          <a:ext cx="528538" cy="911207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>103674</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>77755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1513538</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>507480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="図 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C017A0-EF6D-41B9-9AA6-006CC7676B20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19420374" y="22347205"/>
+          <a:ext cx="1409864" cy="429725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220306</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>233265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1630170</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>666165</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="図 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00675959-3668-4D62-8669-3EE4F7B303F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19537006" y="23963215"/>
+          <a:ext cx="1409864" cy="432900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>243114</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>618930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1656153</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1055005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="図 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B1044B4-E1B3-44AF-9232-9A1198A2D23F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19559814" y="25809380"/>
+          <a:ext cx="1413039" cy="436075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>230155</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>748522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1646369</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1181422</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="図 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{245CABB8-A4C1-46DA-BA75-7F0E272CC8D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19546855" y="27399472"/>
+          <a:ext cx="1416214" cy="432900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>64796</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>220306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1618420</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>654701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="図 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FBC4B1-DBBB-4B9B-A2CC-89BE539C9E4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19381496" y="28331756"/>
+          <a:ext cx="1553624" cy="434395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>116633</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>103674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>750954</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>914698</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="図 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF8C3DF0-352D-4B76-9AB0-7CD8A581530B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19433333" y="29427974"/>
+          <a:ext cx="634321" cy="811024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -9251,6 +12524,18 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D37" dT="2022-12-14T01:13:31.99" personId="{62B05ED4-6599-489F-A6FB-1AD8AC37CCE1}" id="{B3F805DB-9CFD-4D74-A193-7861A54AF965}" done="1">
+    <text>上下の中項目と同様な書き方に揃えてください。
+前後の書き方は「グループ数がXX」と書かれています</text>
+  </threadedComment>
+  <threadedComment ref="E46" dT="2022-12-14T01:03:50.42" personId="{62B05ED4-6599-489F-A6FB-1AD8AC37CCE1}" id="{73B3AC1D-1DEF-47C1-B8BA-84B3B932F944}" done="1">
+    <text>中項目の「グループ数が空」を行う→前提条件のURLにアクセスするも含むので２重になっています</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="D37" dT="2022-12-14T01:13:31.99" personId="{62B05ED4-6599-489F-A6FB-1AD8AC37CCE1}" id="{496C609A-70F9-4B08-B1A8-718012DDC9FF}" done="1">
     <text>上下の中項目と同様な書き方に揃えてください。
 前後の書き方は「グループ数がXX」と書かれています</text>
@@ -9261,7 +12546,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="D37" dT="2022-12-14T01:13:31.99" personId="{62B05ED4-6599-489F-A6FB-1AD8AC37CCE1}" id="{63037488-24ED-4E03-B98E-0BD8CC08A270}" done="1">
     <text>上下の中項目と同様な書き方に揃えてください。
@@ -9274,10 +12559,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB6C040-B41A-4C4A-9166-8E0CC6823196}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173D6EDF-7AEE-4A6A-A1CC-0E527ABA0C2E}">
   <dimension ref="B2:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
       <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
@@ -9321,23 +12606,23 @@
       <c r="B3" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="92" t="s">
         <v>115</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>106</v>
       </c>
       <c r="H3" s="14"/>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="57" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9345,15 +12630,15 @@
       <c r="B4" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="70"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="91"/>
       <c r="G4" s="14" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="14"/>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="57" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9361,21 +12646,21 @@
       <c r="B5" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="54" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="66" t="s">
         <v>115</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="13"/>
-      <c r="I5" s="84" t="s">
+      <c r="I5" s="58" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9383,15 +12668,15 @@
       <c r="B6" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="48" t="s">
+      <c r="C6" s="88"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="56" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="13"/>
-      <c r="I6" s="84" t="s">
+      <c r="I6" s="58" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9399,17 +12684,17 @@
       <c r="B7" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="66"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="13" t="s">
         <v>103</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="I7" s="84" t="s">
+      <c r="I7" s="58" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9417,17 +12702,17 @@
       <c r="B8" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="66"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="25" t="s">
         <v>127</v>
       </c>
       <c r="H8" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="I8" s="85" t="s">
+      <c r="I8" s="61" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9435,15 +12720,15 @@
       <c r="B9" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="63"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="12"/>
-      <c r="I9" s="85" t="s">
+      <c r="I9" s="61" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9451,19 +12736,19 @@
       <c r="B10" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="41" t="s">
+      <c r="C10" s="88"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="49" t="s">
         <v>128</v>
       </c>
       <c r="H10" s="12"/>
-      <c r="I10" s="85" t="s">
+      <c r="I10" s="61" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9471,19 +12756,19 @@
       <c r="B11" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="41" t="s">
+      <c r="C11" s="88"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="49" t="s">
         <v>131</v>
       </c>
       <c r="H11" s="12"/>
-      <c r="I11" s="85" t="s">
+      <c r="I11" s="61" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9491,21 +12776,21 @@
       <c r="B12" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="49" t="s">
+      <c r="C12" s="88"/>
+      <c r="D12" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="82" t="s">
         <v>122</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="16"/>
-      <c r="I12" s="86" t="s">
+      <c r="I12" s="60" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9513,15 +12798,15 @@
       <c r="B13" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="73"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="94"/>
       <c r="G13" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="16"/>
-      <c r="I13" s="86" t="s">
+      <c r="I13" s="60" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9529,17 +12814,17 @@
       <c r="B14" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="73"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="94"/>
       <c r="G14" s="16" t="s">
         <v>108</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="I14" s="86" t="s">
+      <c r="I14" s="60" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9547,17 +12832,17 @@
       <c r="B15" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="74"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="81"/>
       <c r="G15" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="I15" s="86" t="s">
+      <c r="I15" s="60" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9565,19 +12850,19 @@
       <c r="B16" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="51"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="31" t="s">
         <v>243</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="49" t="s">
         <v>130</v>
       </c>
       <c r="H16" s="25"/>
-      <c r="I16" s="85" t="s">
+      <c r="I16" s="61" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9585,21 +12870,21 @@
       <c r="B17" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="49" t="s">
+      <c r="C17" s="88"/>
+      <c r="D17" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="49" t="s">
         <v>136</v>
       </c>
       <c r="H17" s="25"/>
-      <c r="I17" s="85" t="s">
+      <c r="I17" s="61" t="s">
         <v>260</v>
       </c>
     </row>
@@ -9607,15 +12892,15 @@
       <c r="B18" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="44" t="s">
+      <c r="C18" s="88"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="49" t="s">
         <v>137</v>
       </c>
       <c r="H18" s="25"/>
-      <c r="I18" s="85" t="s">
+      <c r="I18" s="61" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9623,21 +12908,21 @@
       <c r="B19" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="49" t="s">
+      <c r="C19" s="88"/>
+      <c r="D19" s="82" t="s">
         <v>244</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="56" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="25"/>
-      <c r="I19" s="85" t="s">
+      <c r="I19" s="61" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9645,15 +12930,15 @@
       <c r="B20" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="48" t="s">
+      <c r="C20" s="88"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="56" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="25"/>
-      <c r="I20" s="85" t="s">
+      <c r="I20" s="61" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9661,17 +12946,17 @@
       <c r="B21" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="48" t="s">
+      <c r="C21" s="88"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="56" t="s">
         <v>103</v>
       </c>
       <c r="H21" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="I21" s="85" t="s">
+      <c r="I21" s="61" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9679,17 +12964,17 @@
       <c r="B22" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="44" t="s">
+      <c r="C22" s="88"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="49" t="s">
         <v>127</v>
       </c>
       <c r="H22" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="I22" s="85" t="s">
+      <c r="I22" s="61" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9697,17 +12982,17 @@
       <c r="B23" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="44" t="s">
+      <c r="C23" s="88"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="49" t="s">
         <v>138</v>
       </c>
       <c r="H23" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="I23" s="85" t="s">
+      <c r="I23" s="61" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9715,17 +13000,17 @@
       <c r="B24" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="81"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="44" t="s">
+      <c r="C24" s="88"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="49" t="s">
         <v>139</v>
       </c>
       <c r="H24" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="I24" s="85" t="s">
+      <c r="I24" s="61" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9733,19 +13018,19 @@
       <c r="B25" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="49" t="s">
+      <c r="C25" s="88"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="82" t="s">
         <v>142</v>
       </c>
       <c r="F25" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="G25" s="44" t="s">
+      <c r="G25" s="49" t="s">
         <v>143</v>
       </c>
       <c r="H25" s="25"/>
-      <c r="I25" s="85" t="s">
+      <c r="I25" s="61" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9753,17 +13038,17 @@
       <c r="B26" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="81"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
       <c r="F26" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="G26" s="49" t="s">
         <v>143</v>
       </c>
       <c r="H26" s="25"/>
-      <c r="I26" s="85" t="s">
+      <c r="I26" s="61" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9771,17 +13056,17 @@
       <c r="B27" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
       <c r="F27" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="G27" s="49" t="s">
         <v>143</v>
       </c>
       <c r="H27" s="25"/>
-      <c r="I27" s="85" t="s">
+      <c r="I27" s="61" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9789,17 +13074,17 @@
       <c r="B28" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="45" t="s">
+      <c r="C28" s="88"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="G28" s="44" t="s">
+      <c r="G28" s="49" t="s">
         <v>143</v>
       </c>
       <c r="H28" s="25"/>
-      <c r="I28" s="85" t="s">
+      <c r="I28" s="61" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9807,21 +13092,21 @@
       <c r="B29" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="49" t="s">
+      <c r="C29" s="88"/>
+      <c r="D29" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="E29" s="49" t="s">
+      <c r="E29" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="52" t="s">
+      <c r="F29" s="85" t="s">
         <v>129</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>16</v>
       </c>
       <c r="H29" s="25"/>
-      <c r="I29" s="85" t="s">
+      <c r="I29" s="61" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9829,15 +13114,15 @@
       <c r="B30" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
       <c r="G30" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H30" s="25"/>
-      <c r="I30" s="85" t="s">
+      <c r="I30" s="61" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9845,17 +13130,17 @@
       <c r="B31" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="C31" s="81"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
       <c r="G31" s="16" t="s">
         <v>108</v>
       </c>
       <c r="H31" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="I31" s="85" t="s">
+      <c r="I31" s="61" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9863,17 +13148,17 @@
       <c r="B32" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
       <c r="G32" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H32" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="I32" s="85" t="s">
+      <c r="I32" s="61" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9881,23 +13166,23 @@
       <c r="B33" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="58" t="s">
+      <c r="D33" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="58" t="s">
+      <c r="E33" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="54" t="s">
+      <c r="F33" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="62" t="s">
+      <c r="G33" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="64"/>
-      <c r="I33" s="87" t="s">
+      <c r="H33" s="78"/>
+      <c r="I33" s="80" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9905,29 +13190,29 @@
       <c r="B34" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="74"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="81"/>
     </row>
     <row r="35" spans="2:9" s="1" customFormat="1" ht="72">
       <c r="B35" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="42" t="s">
+      <c r="C35" s="76"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="H35" s="42" t="s">
+      <c r="H35" s="52" t="s">
         <v>256</v>
       </c>
-      <c r="I35" s="86" t="s">
+      <c r="I35" s="60" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9935,17 +13220,17 @@
       <c r="B36" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="56"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="I36" s="86" t="s">
+      <c r="I36" s="60" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9953,21 +13238,21 @@
       <c r="B37" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="54" t="s">
+      <c r="C37" s="76"/>
+      <c r="D37" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="54" t="s">
+      <c r="E37" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="58" t="s">
+      <c r="F37" s="62" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H37" s="3"/>
-      <c r="I37" s="86" t="s">
+      <c r="I37" s="60" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9975,17 +13260,17 @@
       <c r="B38" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="58"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I38" s="86" t="s">
+      <c r="I38" s="60" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9993,21 +13278,21 @@
       <c r="B39" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="54" t="s">
+      <c r="C39" s="76"/>
+      <c r="D39" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="54" t="s">
+      <c r="E39" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="54" t="s">
+      <c r="F39" s="66" t="s">
         <v>101</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H39" s="3"/>
-      <c r="I39" s="86" t="s">
+      <c r="I39" s="60" t="s">
         <v>261</v>
       </c>
     </row>
@@ -10015,17 +13300,17 @@
       <c r="B40" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="46" t="s">
+      <c r="C40" s="76"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="46" t="s">
+      <c r="H40" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="I40" s="86" t="s">
+      <c r="I40" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10033,21 +13318,21 @@
       <c r="B41" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="68" t="s">
+      <c r="C41" s="76"/>
+      <c r="D41" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="58" t="s">
+      <c r="E41" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="58" t="s">
+      <c r="F41" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="47" t="s">
+      <c r="G41" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="H41" s="47"/>
-      <c r="I41" s="86" t="s">
+      <c r="H41" s="53"/>
+      <c r="I41" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10055,15 +13340,15 @@
       <c r="B42" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="C42" s="60"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="47" t="s">
+      <c r="C42" s="76"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="H42" s="47"/>
-      <c r="I42" s="86" t="s">
+      <c r="H42" s="53"/>
+      <c r="I42" s="60" t="s">
         <v>261</v>
       </c>
     </row>
@@ -10071,15 +13356,15 @@
       <c r="B43" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="47" t="s">
+      <c r="C43" s="76"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="H43" s="47"/>
-      <c r="I43" s="86" t="s">
+      <c r="H43" s="53"/>
+      <c r="I43" s="60" t="s">
         <v>261</v>
       </c>
     </row>
@@ -10087,21 +13372,21 @@
       <c r="B44" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="C44" s="60"/>
-      <c r="D44" s="62" t="s">
+      <c r="C44" s="76"/>
+      <c r="D44" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="54" t="s">
+      <c r="E44" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="F44" s="54" t="s">
+      <c r="F44" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="G44" s="47" t="s">
+      <c r="G44" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="H44" s="47"/>
-      <c r="I44" s="86" t="s">
+      <c r="H44" s="53"/>
+      <c r="I44" s="60" t="s">
         <v>261</v>
       </c>
     </row>
@@ -10109,17 +13394,17 @@
       <c r="B45" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="C45" s="60"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="47" t="s">
+      <c r="C45" s="76"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="47" t="s">
+      <c r="H45" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="I45" s="86" t="s">
+      <c r="I45" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10127,21 +13412,21 @@
       <c r="B46" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="62" t="s">
+      <c r="C46" s="76"/>
+      <c r="D46" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="54" t="s">
+      <c r="E46" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="F46" s="54" t="s">
+      <c r="F46" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="G46" s="47" t="s">
+      <c r="G46" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="H46" s="47"/>
-      <c r="I46" s="86" t="s">
+      <c r="H46" s="53"/>
+      <c r="I46" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10149,15 +13434,15 @@
       <c r="B47" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="C47" s="60"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="47" t="s">
+      <c r="C47" s="76"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="47"/>
-      <c r="I47" s="86" t="s">
+      <c r="H47" s="53"/>
+      <c r="I47" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10165,15 +13450,15 @@
       <c r="B48" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="C48" s="60"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="47" t="s">
+      <c r="C48" s="76"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="H48" s="47"/>
-      <c r="I48" s="86" t="s">
+      <c r="H48" s="53"/>
+      <c r="I48" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10181,21 +13466,21 @@
       <c r="B49" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="62" t="s">
+      <c r="C49" s="76"/>
+      <c r="D49" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="54" t="s">
+      <c r="E49" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="F49" s="54" t="s">
+      <c r="F49" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="G49" s="47" t="s">
+      <c r="G49" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="H49" s="47"/>
-      <c r="I49" s="86" t="s">
+      <c r="H49" s="53"/>
+      <c r="I49" s="60" t="s">
         <v>261</v>
       </c>
     </row>
@@ -10203,17 +13488,17 @@
       <c r="B50" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="C50" s="60"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="47" t="s">
+      <c r="C50" s="76"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="H50" s="47" t="s">
+      <c r="H50" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="I50" s="86" t="s">
+      <c r="I50" s="60" t="s">
         <v>261</v>
       </c>
     </row>
@@ -10221,15 +13506,15 @@
       <c r="B51" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="C51" s="60"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="47" t="s">
+      <c r="C51" s="76"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="H51" s="47"/>
-      <c r="I51" s="86" t="s">
+      <c r="H51" s="53"/>
+      <c r="I51" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10237,17 +13522,17 @@
       <c r="B52" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="61"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="47" t="s">
+      <c r="C52" s="77"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="H52" s="47" t="s">
+      <c r="H52" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="I52" s="86" t="s">
+      <c r="I52" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10255,23 +13540,23 @@
       <c r="B53" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="62" t="s">
+      <c r="D53" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="54" t="s">
+      <c r="E53" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="F53" s="54" t="s">
+      <c r="F53" s="66" t="s">
         <v>44</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>117</v>
       </c>
       <c r="H53" s="3"/>
-      <c r="I53" s="86" t="s">
+      <c r="I53" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10279,15 +13564,15 @@
       <c r="B54" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="C54" s="60"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
       <c r="G54" s="8" t="s">
         <v>124</v>
       </c>
       <c r="H54" s="8"/>
-      <c r="I54" s="86" t="s">
+      <c r="I54" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10295,19 +13580,19 @@
       <c r="B55" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="C55" s="60"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="79" t="s">
+      <c r="C55" s="76"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="F55" s="79" t="s">
+      <c r="F55" s="74" t="s">
         <v>46</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>118</v>
       </c>
       <c r="H55" s="8"/>
-      <c r="I55" s="86" t="s">
+      <c r="I55" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10315,15 +13600,15 @@
       <c r="B56" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="60"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
       <c r="G56" s="8" t="s">
         <v>40</v>
       </c>
       <c r="H56" s="8"/>
-      <c r="I56" s="86" t="s">
+      <c r="I56" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10331,15 +13616,15 @@
       <c r="B57" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="C57" s="60"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
       <c r="G57" s="8" t="s">
         <v>121</v>
       </c>
       <c r="H57" s="8"/>
-      <c r="I57" s="86" t="s">
+      <c r="I57" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10347,17 +13632,17 @@
       <c r="B58" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="C58" s="60"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="56"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="68"/>
       <c r="G58" s="8" t="s">
         <v>48</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="I58" s="86" t="s">
+      <c r="I58" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10365,19 +13650,19 @@
       <c r="B59" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="C59" s="60"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="54" t="s">
+      <c r="C59" s="76"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="F59" s="54" t="s">
+      <c r="F59" s="66" t="s">
         <v>49</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H59" s="3"/>
-      <c r="I59" s="86" t="s">
+      <c r="I59" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10385,15 +13670,15 @@
       <c r="B60" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="C60" s="60"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
       <c r="G60" s="8" t="s">
         <v>123</v>
       </c>
       <c r="H60" s="8"/>
-      <c r="I60" s="86" t="s">
+      <c r="I60" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10401,19 +13686,19 @@
       <c r="B61" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="C61" s="60"/>
-      <c r="D61" s="66"/>
-      <c r="E61" s="79" t="s">
+      <c r="C61" s="76"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="F61" s="79" t="s">
+      <c r="F61" s="74" t="s">
         <v>46</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>47</v>
       </c>
       <c r="H61" s="8"/>
-      <c r="I61" s="86" t="s">
+      <c r="I61" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10421,15 +13706,15 @@
       <c r="B62" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="C62" s="60"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
       <c r="G62" s="8" t="s">
         <v>93</v>
       </c>
       <c r="H62" s="8"/>
-      <c r="I62" s="86" t="s">
+      <c r="I62" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10437,15 +13722,15 @@
       <c r="B63" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="C63" s="60"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
       <c r="G63" s="8" t="s">
         <v>104</v>
       </c>
       <c r="H63" s="8"/>
-      <c r="I63" s="86" t="s">
+      <c r="I63" s="60" t="s">
         <v>261</v>
       </c>
     </row>
@@ -10453,17 +13738,17 @@
       <c r="B64" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="C64" s="60"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="56"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="68"/>
       <c r="G64" s="8" t="s">
         <v>48</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="I64" s="86" t="s">
+      <c r="I64" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10471,21 +13756,21 @@
       <c r="B65" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="62" t="s">
+      <c r="C65" s="76"/>
+      <c r="D65" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="E65" s="54" t="s">
+      <c r="E65" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="F65" s="54" t="s">
+      <c r="F65" s="66" t="s">
         <v>73</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>51</v>
       </c>
       <c r="H65" s="8"/>
-      <c r="I65" s="86" t="s">
+      <c r="I65" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10493,15 +13778,15 @@
       <c r="B66" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="C66" s="60"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="78"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="73"/>
       <c r="G66" s="8" t="s">
         <v>52</v>
       </c>
       <c r="H66" s="8"/>
-      <c r="I66" s="86" t="s">
+      <c r="I66" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10509,17 +13794,17 @@
       <c r="B67" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="79" t="s">
+      <c r="C67" s="76"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="74" t="s">
         <v>49</v>
       </c>
       <c r="G67" s="8" t="s">
         <v>84</v>
       </c>
       <c r="H67" s="8"/>
-      <c r="I67" s="86" t="s">
+      <c r="I67" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10527,15 +13812,15 @@
       <c r="B68" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="C68" s="60"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="78"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="73"/>
       <c r="G68" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H68" s="8"/>
-      <c r="I68" s="86" t="s">
+      <c r="I68" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10543,17 +13828,17 @@
       <c r="B69" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="C69" s="60"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="79" t="s">
+      <c r="C69" s="76"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="74" t="s">
         <v>88</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>53</v>
       </c>
       <c r="H69" s="8"/>
-      <c r="I69" s="86" t="s">
+      <c r="I69" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10561,15 +13846,15 @@
       <c r="B70" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="C70" s="60"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="78"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="73"/>
       <c r="G70" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H70" s="8"/>
-      <c r="I70" s="86" t="s">
+      <c r="I70" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10577,17 +13862,17 @@
       <c r="B71" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="C71" s="60"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="79" t="s">
+      <c r="C71" s="76"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="74" t="s">
         <v>61</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>53</v>
       </c>
       <c r="H71" s="8"/>
-      <c r="I71" s="86" t="s">
+      <c r="I71" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10595,15 +13880,15 @@
       <c r="B72" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="C72" s="60"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="78"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="73"/>
       <c r="G72" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H72" s="8"/>
-      <c r="I72" s="86" t="s">
+      <c r="I72" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10611,17 +13896,17 @@
       <c r="B73" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="C73" s="60"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="79" t="s">
+      <c r="C73" s="76"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="74" t="s">
         <v>66</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>55</v>
       </c>
       <c r="H73" s="8"/>
-      <c r="I73" s="86" t="s">
+      <c r="I73" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10629,15 +13914,15 @@
       <c r="B74" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="60"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="78"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="73"/>
       <c r="G74" s="8" t="s">
         <v>90</v>
       </c>
       <c r="H74" s="8"/>
-      <c r="I74" s="86" t="s">
+      <c r="I74" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10645,17 +13930,17 @@
       <c r="B75" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="C75" s="60"/>
-      <c r="D75" s="66"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55" t="s">
+      <c r="C75" s="76"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67" t="s">
         <v>69</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>55</v>
       </c>
       <c r="H75" s="8"/>
-      <c r="I75" s="86" t="s">
+      <c r="I75" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10663,15 +13948,15 @@
       <c r="B76" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="C76" s="60"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="68"/>
+      <c r="F76" s="68"/>
       <c r="G76" s="8" t="s">
         <v>56</v>
       </c>
       <c r="H76" s="8"/>
-      <c r="I76" s="86" t="s">
+      <c r="I76" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10679,21 +13964,21 @@
       <c r="B77" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="62" t="s">
+      <c r="C77" s="76"/>
+      <c r="D77" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="E77" s="54" t="s">
+      <c r="E77" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="F77" s="54" t="s">
+      <c r="F77" s="66" t="s">
         <v>58</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>59</v>
       </c>
       <c r="H77" s="6"/>
-      <c r="I77" s="86" t="s">
+      <c r="I77" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10701,15 +13986,15 @@
       <c r="B78" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="55"/>
-      <c r="G78" s="47" t="s">
+      <c r="C78" s="76"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="H78" s="47"/>
-      <c r="I78" s="86" t="s">
+      <c r="H78" s="53"/>
+      <c r="I78" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10717,17 +14002,17 @@
       <c r="B79" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="C79" s="60"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="54" t="s">
+      <c r="C79" s="76"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="G79" s="46" t="s">
+      <c r="G79" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="H79" s="46"/>
-      <c r="I79" s="86" t="s">
+      <c r="H79" s="55"/>
+      <c r="I79" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10735,15 +14020,15 @@
       <c r="B80" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="C80" s="60"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="47" t="s">
+      <c r="C80" s="76"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="H80" s="47"/>
-      <c r="I80" s="86" t="s">
+      <c r="H80" s="53"/>
+      <c r="I80" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10751,7 +14036,7 @@
       <c r="B81" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="C81" s="60"/>
+      <c r="C81" s="76"/>
       <c r="D81" s="35" t="s">
         <v>63</v>
       </c>
@@ -10761,11 +14046,11 @@
       <c r="F81" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="G81" s="43" t="s">
+      <c r="G81" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="H81" s="43"/>
-      <c r="I81" s="86" t="s">
+      <c r="H81" s="54"/>
+      <c r="I81" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10773,21 +14058,21 @@
       <c r="B82" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="C82" s="60"/>
-      <c r="D82" s="62" t="s">
+      <c r="C82" s="76"/>
+      <c r="D82" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E82" s="54" t="s">
+      <c r="E82" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="F82" s="54" t="s">
+      <c r="F82" s="66" t="s">
         <v>66</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>67</v>
       </c>
       <c r="H82" s="7"/>
-      <c r="I82" s="86" t="s">
+      <c r="I82" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10795,15 +14080,15 @@
       <c r="B83" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="C83" s="60"/>
-      <c r="D83" s="66"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="56"/>
+      <c r="C83" s="76"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="68"/>
       <c r="G83" s="8" t="s">
         <v>68</v>
       </c>
       <c r="H83" s="7"/>
-      <c r="I83" s="86" t="s">
+      <c r="I83" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10811,17 +14096,17 @@
       <c r="B84" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="C84" s="60"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="54" t="s">
+      <c r="C84" s="76"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="66" t="s">
         <v>69</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>70</v>
       </c>
       <c r="H84" s="7"/>
-      <c r="I84" s="86" t="s">
+      <c r="I84" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10829,15 +14114,15 @@
       <c r="B85" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="C85" s="60"/>
-      <c r="D85" s="66"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="56"/>
+      <c r="C85" s="76"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="68"/>
       <c r="G85" s="8" t="s">
         <v>71</v>
       </c>
       <c r="H85" s="7"/>
-      <c r="I85" s="86" t="s">
+      <c r="I85" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10845,21 +14130,21 @@
       <c r="B86" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="C86" s="60"/>
-      <c r="D86" s="62" t="s">
+      <c r="C86" s="76"/>
+      <c r="D86" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="E86" s="54" t="s">
+      <c r="E86" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="F86" s="54" t="s">
+      <c r="F86" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="G86" s="47" t="s">
+      <c r="G86" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="H86" s="47"/>
-      <c r="I86" s="86" t="s">
+      <c r="H86" s="53"/>
+      <c r="I86" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10867,15 +14152,15 @@
       <c r="B87" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="C87" s="60"/>
-      <c r="D87" s="66"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="56"/>
-      <c r="G87" s="47" t="s">
+      <c r="C87" s="76"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="68"/>
+      <c r="G87" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="H87" s="47"/>
-      <c r="I87" s="86" t="s">
+      <c r="H87" s="53"/>
+      <c r="I87" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10883,17 +14168,17 @@
       <c r="B88" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="C88" s="60"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="54" t="s">
+      <c r="C88" s="76"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="G88" s="47" t="s">
+      <c r="G88" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="H88" s="47"/>
-      <c r="I88" s="86" t="s">
+      <c r="H88" s="53"/>
+      <c r="I88" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10901,15 +14186,15 @@
       <c r="B89" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="C89" s="61"/>
-      <c r="D89" s="63"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="56"/>
-      <c r="G89" s="47" t="s">
+      <c r="C89" s="77"/>
+      <c r="D89" s="65"/>
+      <c r="E89" s="68"/>
+      <c r="F89" s="68"/>
+      <c r="G89" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="H89" s="47"/>
-      <c r="I89" s="86" t="s">
+      <c r="H89" s="53"/>
+      <c r="I89" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10917,23 +14202,23 @@
       <c r="B90" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="C90" s="75" t="s">
+      <c r="C90" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="D90" s="68" t="s">
+      <c r="D90" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="E90" s="58" t="s">
+      <c r="E90" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="F90" s="58" t="s">
+      <c r="F90" s="62" t="s">
         <v>94</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>77</v>
       </c>
       <c r="H90" s="3"/>
-      <c r="I90" s="86" t="s">
+      <c r="I90" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10941,15 +14226,15 @@
       <c r="B91" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="C91" s="76"/>
-      <c r="D91" s="68"/>
-      <c r="E91" s="58"/>
-      <c r="F91" s="58"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="62"/>
+      <c r="F91" s="62"/>
       <c r="G91" s="3" t="s">
         <v>78</v>
       </c>
       <c r="H91" s="3"/>
-      <c r="I91" s="86" t="s">
+      <c r="I91" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10957,21 +14242,21 @@
       <c r="B92" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="C92" s="76"/>
-      <c r="D92" s="68" t="s">
+      <c r="C92" s="70"/>
+      <c r="D92" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="E92" s="58" t="s">
+      <c r="E92" s="62" t="s">
         <v>249</v>
       </c>
-      <c r="F92" s="58" t="s">
+      <c r="F92" s="62" t="s">
         <v>80</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>81</v>
       </c>
       <c r="H92" s="7"/>
-      <c r="I92" s="86" t="s">
+      <c r="I92" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10979,15 +14264,15 @@
       <c r="B93" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="C93" s="76"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
+      <c r="C93" s="70"/>
+      <c r="D93" s="72"/>
+      <c r="E93" s="62"/>
+      <c r="F93" s="62"/>
       <c r="G93" s="7" t="s">
         <v>82</v>
       </c>
       <c r="H93" s="7"/>
-      <c r="I93" s="86" t="s">
+      <c r="I93" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10995,15 +14280,15 @@
       <c r="B94" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="C94" s="77"/>
-      <c r="D94" s="68"/>
-      <c r="E94" s="58"/>
-      <c r="F94" s="58"/>
-      <c r="G94" s="47" t="s">
+      <c r="C94" s="71"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="62"/>
+      <c r="F94" s="62"/>
+      <c r="G94" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="H94" s="47"/>
-      <c r="I94" s="86" t="s">
+      <c r="H94" s="53"/>
+      <c r="I94" s="60" t="s">
         <v>260</v>
       </c>
     </row>
@@ -11101,6 +14386,1833 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB6C040-B41A-4C4A-9166-8E0CC6823196}">
+  <dimension ref="B2:I94"/>
+  <sheetViews>
+    <sheetView zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" customWidth="1"/>
+    <col min="6" max="6" width="69" customWidth="1"/>
+    <col min="7" max="8" width="65.08203125" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="36" customHeight="1">
+      <c r="B3" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="57" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="66" customHeight="1">
+      <c r="B4" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="57" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="36">
+      <c r="B5" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="88"/>
+      <c r="D5" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="58" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="73" customHeight="1">
+      <c r="B6" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="88"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="58" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="84.75" customHeight="1">
+      <c r="B7" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="88"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="108">
+      <c r="B8" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="88"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="36">
+      <c r="B9" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="88"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="103" customHeight="1">
+      <c r="B10" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="88"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="103" customHeight="1">
+      <c r="B11" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="88"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="36">
+      <c r="B12" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="88"/>
+      <c r="D12" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="60" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="68.5" customHeight="1">
+      <c r="B13" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="88"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="60" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="54">
+      <c r="B14" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="88"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="I14" s="60" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="54">
+      <c r="B15" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="88"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="I15" s="60" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B16" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="88"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B17" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="88"/>
+      <c r="D17" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="59" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B18" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="88"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B19" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="88"/>
+      <c r="D19" s="82" t="s">
+        <v>244</v>
+      </c>
+      <c r="E19" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B20" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="88"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B21" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="88"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="I21" s="59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B22" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="88"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="I22" s="59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B23" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="88"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" s="59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B24" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="88"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" s="59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="115" customHeight="1">
+      <c r="B25" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="88"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="115" customHeight="1">
+      <c r="B26" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="88"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="115" customHeight="1">
+      <c r="B27" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="88"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="115" customHeight="1">
+      <c r="B28" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="88"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B29" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="88"/>
+      <c r="D29" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B30" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="88"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B31" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="88"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="I31" s="59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B32" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="89"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="I32" s="59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" s="1" customFormat="1" ht="44.5" customHeight="1">
+      <c r="B33" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="78"/>
+      <c r="I33" s="80" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="B34" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="76"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="81"/>
+    </row>
+    <row r="35" spans="2:9" s="1" customFormat="1" ht="72">
+      <c r="B35" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="76"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="I35" s="60" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" s="1" customFormat="1" ht="68.25" customHeight="1">
+      <c r="B36" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="76"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I36" s="60" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="18" customHeight="1">
+      <c r="B37" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="76"/>
+      <c r="D37" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="60" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="18" customHeight="1">
+      <c r="B38" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="76"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" s="60" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="36" customHeight="1">
+      <c r="B39" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="76"/>
+      <c r="D39" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="60" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="25" customHeight="1">
+      <c r="B40" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" s="76"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="I40" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="36" customHeight="1">
+      <c r="B41" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="76"/>
+      <c r="D41" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="H41" s="47"/>
+      <c r="I41" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="58.5" customHeight="1">
+      <c r="B42" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="76"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="47"/>
+      <c r="I42" s="60" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="78.75" customHeight="1">
+      <c r="B43" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" s="76"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="H43" s="47"/>
+      <c r="I43" s="60" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="36" customHeight="1">
+      <c r="B44" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" s="76"/>
+      <c r="D44" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="47"/>
+      <c r="I44" s="60" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" s="76"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="36" customHeight="1">
+      <c r="B46" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="76"/>
+      <c r="D46" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="66" t="s">
+        <v>245</v>
+      </c>
+      <c r="F46" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="47"/>
+      <c r="I46" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="36" customHeight="1">
+      <c r="B47" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" s="76"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="47"/>
+      <c r="I47" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="72">
+      <c r="B48" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" s="76"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="47"/>
+      <c r="I48" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="36" customHeight="1">
+      <c r="B49" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" s="76"/>
+      <c r="D49" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="F49" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" s="47"/>
+      <c r="I49" s="60" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="55" customHeight="1">
+      <c r="B50" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="76"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="I50" s="60" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="72">
+      <c r="B51" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="76"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="H51" s="47"/>
+      <c r="I51" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="54">
+      <c r="B52" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" s="77"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="I52" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="88.5" customHeight="1">
+      <c r="B53" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="114" customHeight="1">
+      <c r="B54" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="76"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H54" s="8"/>
+      <c r="I54" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="54">
+      <c r="B55" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" s="76"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="I55" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="35.5" customHeight="1">
+      <c r="B56" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" s="76"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="8"/>
+      <c r="I56" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="72">
+      <c r="B57" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" s="76"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H57" s="8"/>
+      <c r="I57" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="54">
+      <c r="B58" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C58" s="76"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="I58" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="92" customHeight="1">
+      <c r="B59" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="C59" s="76"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="114" customHeight="1">
+      <c r="B60" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" s="76"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H60" s="8"/>
+      <c r="I60" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="36">
+      <c r="B61" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="C61" s="76"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H61" s="8"/>
+      <c r="I61" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="70" customHeight="1">
+      <c r="B62" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62" s="76"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H62" s="8"/>
+      <c r="I62" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="72">
+      <c r="B63" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" s="76"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H63" s="8"/>
+      <c r="I63" s="60" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="54">
+      <c r="B64" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" s="76"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I64" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="64" customHeight="1">
+      <c r="B65" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" s="76"/>
+      <c r="D65" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="F65" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H65" s="8"/>
+      <c r="I65" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="58" customHeight="1">
+      <c r="B66" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66" s="76"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H66" s="8"/>
+      <c r="I66" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="58" customHeight="1">
+      <c r="B67" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="C67" s="76"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H67" s="8"/>
+      <c r="I67" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="58" customHeight="1">
+      <c r="B68" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C68" s="76"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H68" s="8"/>
+      <c r="I68" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="49" customHeight="1">
+      <c r="B69" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" s="76"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H69" s="8"/>
+      <c r="I69" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="46" customHeight="1">
+      <c r="B70" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" s="76"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H70" s="8"/>
+      <c r="I70" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="48.5" customHeight="1">
+      <c r="B71" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="C71" s="76"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H71" s="8"/>
+      <c r="I71" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="59" customHeight="1">
+      <c r="B72" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="C72" s="76"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H72" s="8"/>
+      <c r="I72" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="38.5" customHeight="1">
+      <c r="B73" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" s="76"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H73" s="8"/>
+      <c r="I73" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="38.5" customHeight="1">
+      <c r="B74" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" s="76"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H74" s="8"/>
+      <c r="I74" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="38.5" customHeight="1">
+      <c r="B75" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" s="76"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H75" s="8"/>
+      <c r="I75" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="39.65" customHeight="1">
+      <c r="B76" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" s="76"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="68"/>
+      <c r="F76" s="68"/>
+      <c r="G76" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H76" s="8"/>
+      <c r="I76" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="85" customHeight="1">
+      <c r="B77" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="C77" s="76"/>
+      <c r="D77" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="E77" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="F77" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H77" s="6"/>
+      <c r="I77" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="107.5" customHeight="1">
+      <c r="B78" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="C78" s="76"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="H78" s="47"/>
+      <c r="I78" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="92.5" customHeight="1">
+      <c r="B79" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="C79" s="76"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="G79" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="H79" s="46"/>
+      <c r="I79" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="118" customHeight="1">
+      <c r="B80" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80" s="76"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="H80" s="47"/>
+      <c r="I80" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" ht="36">
+      <c r="B81" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="C81" s="76"/>
+      <c r="D81" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E81" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="F81" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G81" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="H81" s="43"/>
+      <c r="I81" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" ht="36" customHeight="1">
+      <c r="B82" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="C82" s="76"/>
+      <c r="D82" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="E82" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="F82" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H82" s="7"/>
+      <c r="I82" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" ht="95.5" customHeight="1">
+      <c r="B83" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" s="76"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H83" s="7"/>
+      <c r="I83" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" ht="36" customHeight="1">
+      <c r="B84" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="C84" s="76"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H84" s="7"/>
+      <c r="I84" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" ht="95" customHeight="1">
+      <c r="B85" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="C85" s="76"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H85" s="7"/>
+      <c r="I85" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" ht="62.5" customHeight="1">
+      <c r="B86" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="C86" s="76"/>
+      <c r="D86" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="E86" s="66" t="s">
+        <v>247</v>
+      </c>
+      <c r="F86" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="G86" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H86" s="47"/>
+      <c r="I86" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" ht="94" customHeight="1">
+      <c r="B87" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="C87" s="76"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="68"/>
+      <c r="G87" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="H87" s="47"/>
+      <c r="I87" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" ht="73.5" customHeight="1">
+      <c r="B88" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="C88" s="76"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="G88" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H88" s="47"/>
+      <c r="I88" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" ht="81" customHeight="1">
+      <c r="B89" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="C89" s="77"/>
+      <c r="D89" s="65"/>
+      <c r="E89" s="68"/>
+      <c r="F89" s="68"/>
+      <c r="G89" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="H89" s="47"/>
+      <c r="I89" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="100.5" customHeight="1">
+      <c r="B90" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="C90" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="D90" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="E90" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="F90" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H90" s="3"/>
+      <c r="I90" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" ht="131" customHeight="1">
+      <c r="B91" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="C91" s="70"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="62"/>
+      <c r="F91" s="62"/>
+      <c r="G91" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H91" s="3"/>
+      <c r="I91" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" ht="36">
+      <c r="B92" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="C92" s="70"/>
+      <c r="D92" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="E92" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="F92" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H92" s="7"/>
+      <c r="I92" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" ht="50.5" customHeight="1">
+      <c r="B93" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="C93" s="70"/>
+      <c r="D93" s="72"/>
+      <c r="E93" s="62"/>
+      <c r="F93" s="62"/>
+      <c r="G93" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H93" s="7"/>
+      <c r="I93" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" ht="72">
+      <c r="B94" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="C94" s="71"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="62"/>
+      <c r="F94" s="62"/>
+      <c r="G94" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="H94" s="47"/>
+      <c r="I94" s="60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="82">
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D19:D28"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="C33:C52"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="C3:C32"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D5:D11"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="C53:C89"/>
+    <mergeCell ref="D53:D64"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="D65:D76"/>
+    <mergeCell ref="E65:E76"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="F88:F89"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A09298-0F71-4963-8BFE-63280B4801A1}">
   <dimension ref="B2:I94"/>
   <sheetViews>
@@ -11148,16 +16260,16 @@
       <c r="B3" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="92" t="s">
         <v>115</v>
       </c>
       <c r="G3" s="14" t="s">
@@ -11170,10 +16282,10 @@
       <c r="B4" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="70"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="91"/>
       <c r="G4" s="14" t="s">
         <v>10</v>
       </c>
@@ -11184,14 +16296,14 @@
       <c r="B5" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="54" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="66" t="s">
         <v>115</v>
       </c>
       <c r="G5" s="13" t="s">
@@ -11204,10 +16316,10 @@
       <c r="B6" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="66"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="27" t="s">
         <v>13</v>
       </c>
@@ -11218,10 +16330,10 @@
       <c r="B7" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="66"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="13" t="s">
         <v>103</v>
       </c>
@@ -11234,10 +16346,10 @@
       <c r="B8" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="66"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="25" t="s">
         <v>127</v>
       </c>
@@ -11250,10 +16362,10 @@
       <c r="B9" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="63"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="12" t="s">
         <v>14</v>
       </c>
@@ -11264,8 +16376,8 @@
       <c r="B10" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="55"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="28" t="s">
         <v>242</v>
       </c>
@@ -11282,8 +16394,8 @@
       <c r="B11" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="56"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="68"/>
       <c r="E11" s="28" t="s">
         <v>241</v>
       </c>
@@ -11300,14 +16412,14 @@
       <c r="B12" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="49" t="s">
+      <c r="C12" s="88"/>
+      <c r="D12" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="82" t="s">
         <v>122</v>
       </c>
       <c r="G12" s="16" t="s">
@@ -11320,10 +16432,10 @@
       <c r="B13" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="73"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="94"/>
       <c r="G13" s="16" t="s">
         <v>17</v>
       </c>
@@ -11334,10 +16446,10 @@
       <c r="B14" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="73"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="94"/>
       <c r="G14" s="16" t="s">
         <v>108</v>
       </c>
@@ -11350,10 +16462,10 @@
       <c r="B15" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="74"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="81"/>
       <c r="G15" s="15" t="s">
         <v>18</v>
       </c>
@@ -11366,8 +16478,8 @@
       <c r="B16" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="51"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="31" t="s">
         <v>243</v>
       </c>
@@ -11384,14 +16496,14 @@
       <c r="B17" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="49" t="s">
+      <c r="C17" s="88"/>
+      <c r="D17" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="85" t="s">
         <v>129</v>
       </c>
       <c r="G17" s="29" t="s">
@@ -11404,10 +16516,10 @@
       <c r="B18" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="53"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="29" t="s">
         <v>137</v>
       </c>
@@ -11418,14 +16530,14 @@
       <c r="B19" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="49" t="s">
+      <c r="C19" s="88"/>
+      <c r="D19" s="82" t="s">
         <v>244</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="85" t="s">
         <v>129</v>
       </c>
       <c r="G19" s="27" t="s">
@@ -11438,10 +16550,10 @@
       <c r="B20" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
       <c r="G20" s="27" t="s">
         <v>13</v>
       </c>
@@ -11452,10 +16564,10 @@
       <c r="B21" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
       <c r="G21" s="27" t="s">
         <v>103</v>
       </c>
@@ -11468,10 +16580,10 @@
       <c r="B22" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
       <c r="G22" s="29" t="s">
         <v>127</v>
       </c>
@@ -11484,10 +16596,10 @@
       <c r="B23" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
       <c r="G23" s="29" t="s">
         <v>138</v>
       </c>
@@ -11500,10 +16612,10 @@
       <c r="B24" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="81"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="53"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="86"/>
       <c r="G24" s="29" t="s">
         <v>139</v>
       </c>
@@ -11516,9 +16628,9 @@
       <c r="B25" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="49" t="s">
+      <c r="C25" s="88"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="82" t="s">
         <v>142</v>
       </c>
       <c r="F25" s="33" t="s">
@@ -11534,9 +16646,9 @@
       <c r="B26" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="81"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
       <c r="F26" s="33" t="s">
         <v>145</v>
       </c>
@@ -11550,9 +16662,9 @@
       <c r="B27" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
       <c r="F27" s="33" t="s">
         <v>146</v>
       </c>
@@ -11566,9 +16678,9 @@
       <c r="B28" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
       <c r="F28" s="34" t="s">
         <v>147</v>
       </c>
@@ -11582,14 +16694,14 @@
       <c r="B29" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="49" t="s">
+      <c r="C29" s="88"/>
+      <c r="D29" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="E29" s="49" t="s">
+      <c r="E29" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="52" t="s">
+      <c r="F29" s="85" t="s">
         <v>129</v>
       </c>
       <c r="G29" s="16" t="s">
@@ -11602,10 +16714,10 @@
       <c r="B30" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
       <c r="G30" s="16" t="s">
         <v>17</v>
       </c>
@@ -11616,10 +16728,10 @@
       <c r="B31" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="C31" s="81"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
       <c r="G31" s="16" t="s">
         <v>108</v>
       </c>
@@ -11632,10 +16744,10 @@
       <c r="B32" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
       <c r="G32" s="15" t="s">
         <v>18</v>
       </c>
@@ -11648,44 +16760,44 @@
       <c r="B33" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="58" t="s">
+      <c r="D33" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="58" t="s">
+      <c r="E33" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="54" t="s">
+      <c r="F33" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="62" t="s">
+      <c r="G33" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
     </row>
     <row r="34" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B34" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="65"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="96"/>
     </row>
     <row r="35" spans="2:9" s="1" customFormat="1" ht="72">
       <c r="B35" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="55"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="67"/>
       <c r="G35" s="10" t="s">
         <v>102</v>
       </c>
@@ -11698,10 +16810,10 @@
       <c r="B36" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="56"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="8" t="s">
         <v>18</v>
       </c>
@@ -11714,50 +16826,50 @@
       <c r="B37" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="54" t="s">
+      <c r="C37" s="76"/>
+      <c r="D37" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="54" t="s">
+      <c r="E37" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="58" t="s">
+      <c r="F37" s="62" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>83</v>
       </c>
       <c r="H37" s="3"/>
-      <c r="I37" s="57"/>
+      <c r="I37" s="95"/>
     </row>
     <row r="38" spans="2:9" ht="18" customHeight="1">
       <c r="B38" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="58"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I38" s="57"/>
+      <c r="I38" s="95"/>
     </row>
     <row r="39" spans="2:9" ht="36" customHeight="1">
       <c r="B39" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="54" t="s">
+      <c r="C39" s="76"/>
+      <c r="D39" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="54" t="s">
+      <c r="E39" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="54" t="s">
+      <c r="F39" s="66" t="s">
         <v>101</v>
       </c>
       <c r="G39" s="3" t="s">
@@ -11770,10 +16882,10 @@
       <c r="B40" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
       <c r="G40" s="5" t="s">
         <v>23</v>
       </c>
@@ -11786,14 +16898,14 @@
       <c r="B41" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="68" t="s">
+      <c r="C41" s="76"/>
+      <c r="D41" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="58" t="s">
+      <c r="E41" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="58" t="s">
+      <c r="F41" s="62" t="s">
         <v>26</v>
       </c>
       <c r="G41" s="4" t="s">
@@ -11806,10 +16918,10 @@
       <c r="B42" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="C42" s="60"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
       <c r="G42" s="4" t="s">
         <v>27</v>
       </c>
@@ -11820,10 +16932,10 @@
       <c r="B43" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
       <c r="G43" s="4" t="s">
         <v>109</v>
       </c>
@@ -11834,14 +16946,14 @@
       <c r="B44" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="C44" s="60"/>
-      <c r="D44" s="62" t="s">
+      <c r="C44" s="76"/>
+      <c r="D44" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="54" t="s">
+      <c r="E44" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="F44" s="54" t="s">
+      <c r="F44" s="66" t="s">
         <v>29</v>
       </c>
       <c r="G44" s="4" t="s">
@@ -11854,10 +16966,10 @@
       <c r="B45" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="C45" s="60"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
       <c r="G45" s="4" t="s">
         <v>31</v>
       </c>
@@ -11870,14 +16982,14 @@
       <c r="B46" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="62" t="s">
+      <c r="C46" s="76"/>
+      <c r="D46" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="54" t="s">
+      <c r="E46" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="F46" s="54" t="s">
+      <c r="F46" s="66" t="s">
         <v>33</v>
       </c>
       <c r="G46" s="4" t="s">
@@ -11890,10 +17002,10 @@
       <c r="B47" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="C47" s="60"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
       <c r="G47" s="4" t="s">
         <v>35</v>
       </c>
@@ -11904,10 +17016,10 @@
       <c r="B48" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="C48" s="60"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
       <c r="G48" s="4" t="s">
         <v>36</v>
       </c>
@@ -11918,14 +17030,14 @@
       <c r="B49" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="62" t="s">
+      <c r="C49" s="76"/>
+      <c r="D49" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="54" t="s">
+      <c r="E49" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="F49" s="54" t="s">
+      <c r="F49" s="66" t="s">
         <v>38</v>
       </c>
       <c r="G49" s="4" t="s">
@@ -11938,10 +17050,10 @@
       <c r="B50" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="C50" s="60"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
       <c r="G50" s="4" t="s">
         <v>40</v>
       </c>
@@ -11952,10 +17064,10 @@
       <c r="B51" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="C51" s="60"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
       <c r="G51" s="4" t="s">
         <v>112</v>
       </c>
@@ -11966,10 +17078,10 @@
       <c r="B52" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="61"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
       <c r="G52" s="4" t="s">
         <v>41</v>
       </c>
@@ -11982,16 +17094,16 @@
       <c r="B53" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="62" t="s">
+      <c r="D53" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="54" t="s">
+      <c r="E53" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="F53" s="54" t="s">
+      <c r="F53" s="66" t="s">
         <v>44</v>
       </c>
       <c r="G53" s="3" t="s">
@@ -12004,10 +17116,10 @@
       <c r="B54" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="C54" s="60"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
       <c r="G54" s="8" t="s">
         <v>124</v>
       </c>
@@ -12018,12 +17130,12 @@
       <c r="B55" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="C55" s="60"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="79" t="s">
+      <c r="C55" s="76"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="F55" s="79" t="s">
+      <c r="F55" s="74" t="s">
         <v>46</v>
       </c>
       <c r="G55" s="8" t="s">
@@ -12036,10 +17148,10 @@
       <c r="B56" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="60"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
       <c r="G56" s="8" t="s">
         <v>40</v>
       </c>
@@ -12050,10 +17162,10 @@
       <c r="B57" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="C57" s="60"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
       <c r="G57" s="8" t="s">
         <v>121</v>
       </c>
@@ -12064,10 +17176,10 @@
       <c r="B58" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="C58" s="60"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="56"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="68"/>
       <c r="G58" s="8" t="s">
         <v>48</v>
       </c>
@@ -12080,12 +17192,12 @@
       <c r="B59" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="C59" s="60"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="54" t="s">
+      <c r="C59" s="76"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="F59" s="54" t="s">
+      <c r="F59" s="66" t="s">
         <v>49</v>
       </c>
       <c r="G59" s="3" t="s">
@@ -12098,10 +17210,10 @@
       <c r="B60" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="C60" s="60"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
       <c r="G60" s="8" t="s">
         <v>123</v>
       </c>
@@ -12112,12 +17224,12 @@
       <c r="B61" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="C61" s="60"/>
-      <c r="D61" s="66"/>
-      <c r="E61" s="79" t="s">
+      <c r="C61" s="76"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="F61" s="79" t="s">
+      <c r="F61" s="74" t="s">
         <v>46</v>
       </c>
       <c r="G61" s="8" t="s">
@@ -12130,10 +17242,10 @@
       <c r="B62" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="C62" s="60"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
       <c r="G62" s="8" t="s">
         <v>93</v>
       </c>
@@ -12144,10 +17256,10 @@
       <c r="B63" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="C63" s="60"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
       <c r="G63" s="8" t="s">
         <v>104</v>
       </c>
@@ -12158,10 +17270,10 @@
       <c r="B64" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="C64" s="60"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="56"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="68"/>
       <c r="G64" s="8" t="s">
         <v>48</v>
       </c>
@@ -12174,14 +17286,14 @@
       <c r="B65" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="62" t="s">
+      <c r="C65" s="76"/>
+      <c r="D65" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="E65" s="54" t="s">
+      <c r="E65" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="F65" s="54" t="s">
+      <c r="F65" s="66" t="s">
         <v>73</v>
       </c>
       <c r="G65" s="8" t="s">
@@ -12194,10 +17306,10 @@
       <c r="B66" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="C66" s="60"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="78"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="73"/>
       <c r="G66" s="8" t="s">
         <v>52</v>
       </c>
@@ -12208,10 +17320,10 @@
       <c r="B67" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="79" t="s">
+      <c r="C67" s="76"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="74" t="s">
         <v>49</v>
       </c>
       <c r="G67" s="8" t="s">
@@ -12224,10 +17336,10 @@
       <c r="B68" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="C68" s="60"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="78"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="73"/>
       <c r="G68" s="8" t="s">
         <v>85</v>
       </c>
@@ -12238,10 +17350,10 @@
       <c r="B69" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="C69" s="60"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="79" t="s">
+      <c r="C69" s="76"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="74" t="s">
         <v>88</v>
       </c>
       <c r="G69" s="8" t="s">
@@ -12254,10 +17366,10 @@
       <c r="B70" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="C70" s="60"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="78"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="73"/>
       <c r="G70" s="8" t="s">
         <v>54</v>
       </c>
@@ -12268,10 +17380,10 @@
       <c r="B71" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="C71" s="60"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="79" t="s">
+      <c r="C71" s="76"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="74" t="s">
         <v>89</v>
       </c>
       <c r="G71" s="8" t="s">
@@ -12284,10 +17396,10 @@
       <c r="B72" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="C72" s="60"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="78"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="73"/>
       <c r="G72" s="8" t="s">
         <v>87</v>
       </c>
@@ -12298,10 +17410,10 @@
       <c r="B73" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="C73" s="60"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="79" t="s">
+      <c r="C73" s="76"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="74" t="s">
         <v>66</v>
       </c>
       <c r="G73" s="8" t="s">
@@ -12314,10 +17426,10 @@
       <c r="B74" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="60"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="78"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="73"/>
       <c r="G74" s="8" t="s">
         <v>90</v>
       </c>
@@ -12328,10 +17440,10 @@
       <c r="B75" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="C75" s="60"/>
-      <c r="D75" s="66"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55" t="s">
+      <c r="C75" s="76"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67" t="s">
         <v>92</v>
       </c>
       <c r="G75" s="8" t="s">
@@ -12344,10 +17456,10 @@
       <c r="B76" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="C76" s="60"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="68"/>
+      <c r="F76" s="68"/>
       <c r="G76" s="8" t="s">
         <v>56</v>
       </c>
@@ -12358,14 +17470,14 @@
       <c r="B77" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="62" t="s">
+      <c r="C77" s="76"/>
+      <c r="D77" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="E77" s="54" t="s">
+      <c r="E77" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="F77" s="54" t="s">
+      <c r="F77" s="66" t="s">
         <v>58</v>
       </c>
       <c r="G77" s="3" t="s">
@@ -12378,10 +17490,10 @@
       <c r="B78" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="55"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
       <c r="G78" s="4" t="s">
         <v>60</v>
       </c>
@@ -12392,10 +17504,10 @@
       <c r="B79" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="C79" s="60"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="54" t="s">
+      <c r="C79" s="76"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="66" t="s">
         <v>61</v>
       </c>
       <c r="G79" s="5" t="s">
@@ -12408,10 +17520,10 @@
       <c r="B80" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="C80" s="60"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="55"/>
+      <c r="C80" s="76"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
       <c r="G80" s="4" t="s">
         <v>60</v>
       </c>
@@ -12422,7 +17534,7 @@
       <c r="B81" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="C81" s="60"/>
+      <c r="C81" s="76"/>
       <c r="D81" s="35" t="s">
         <v>63</v>
       </c>
@@ -12442,14 +17554,14 @@
       <c r="B82" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="C82" s="60"/>
-      <c r="D82" s="62" t="s">
+      <c r="C82" s="76"/>
+      <c r="D82" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E82" s="54" t="s">
+      <c r="E82" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="F82" s="54" t="s">
+      <c r="F82" s="66" t="s">
         <v>66</v>
       </c>
       <c r="G82" s="7" t="s">
@@ -12462,10 +17574,10 @@
       <c r="B83" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="C83" s="60"/>
-      <c r="D83" s="66"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="56"/>
+      <c r="C83" s="76"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="68"/>
       <c r="G83" s="8" t="s">
         <v>68</v>
       </c>
@@ -12476,10 +17588,10 @@
       <c r="B84" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="C84" s="60"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="54" t="s">
+      <c r="C84" s="76"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="66" t="s">
         <v>69</v>
       </c>
       <c r="G84" s="7" t="s">
@@ -12492,10 +17604,10 @@
       <c r="B85" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="C85" s="60"/>
-      <c r="D85" s="66"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="56"/>
+      <c r="C85" s="76"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="68"/>
       <c r="G85" s="8" t="s">
         <v>71</v>
       </c>
@@ -12506,14 +17618,14 @@
       <c r="B86" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="C86" s="60"/>
-      <c r="D86" s="62" t="s">
+      <c r="C86" s="76"/>
+      <c r="D86" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="E86" s="54" t="s">
+      <c r="E86" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="F86" s="54" t="s">
+      <c r="F86" s="66" t="s">
         <v>73</v>
       </c>
       <c r="G86" s="4" t="s">
@@ -12526,10 +17638,10 @@
       <c r="B87" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="C87" s="60"/>
-      <c r="D87" s="66"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="56"/>
+      <c r="C87" s="76"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="68"/>
       <c r="G87" s="4" t="s">
         <v>71</v>
       </c>
@@ -12540,10 +17652,10 @@
       <c r="B88" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="C88" s="60"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="54" t="s">
+      <c r="C88" s="76"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="66" t="s">
         <v>95</v>
       </c>
       <c r="G88" s="4" t="s">
@@ -12556,10 +17668,10 @@
       <c r="B89" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="C89" s="61"/>
-      <c r="D89" s="63"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="56"/>
+      <c r="C89" s="77"/>
+      <c r="D89" s="65"/>
+      <c r="E89" s="68"/>
+      <c r="F89" s="68"/>
       <c r="G89" s="4" t="s">
         <v>71</v>
       </c>
@@ -12570,16 +17682,16 @@
       <c r="B90" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="C90" s="75" t="s">
+      <c r="C90" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="D90" s="68" t="s">
+      <c r="D90" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="E90" s="58" t="s">
+      <c r="E90" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="F90" s="58" t="s">
+      <c r="F90" s="62" t="s">
         <v>94</v>
       </c>
       <c r="G90" s="3" t="s">
@@ -12592,10 +17704,10 @@
       <c r="B91" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="C91" s="76"/>
-      <c r="D91" s="68"/>
-      <c r="E91" s="58"/>
-      <c r="F91" s="58"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="62"/>
+      <c r="F91" s="62"/>
       <c r="G91" s="3" t="s">
         <v>78</v>
       </c>
@@ -12606,14 +17718,14 @@
       <c r="B92" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="C92" s="76"/>
-      <c r="D92" s="68" t="s">
+      <c r="C92" s="70"/>
+      <c r="D92" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="E92" s="58" t="s">
+      <c r="E92" s="62" t="s">
         <v>249</v>
       </c>
-      <c r="F92" s="58" t="s">
+      <c r="F92" s="62" t="s">
         <v>80</v>
       </c>
       <c r="G92" s="7" t="s">
@@ -12626,10 +17738,10 @@
       <c r="B93" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="C93" s="76"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
+      <c r="C93" s="70"/>
+      <c r="D93" s="72"/>
+      <c r="E93" s="62"/>
+      <c r="F93" s="62"/>
       <c r="G93" s="7" t="s">
         <v>82</v>
       </c>
@@ -12640,10 +17752,10 @@
       <c r="B94" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="C94" s="77"/>
-      <c r="D94" s="68"/>
-      <c r="E94" s="58"/>
-      <c r="F94" s="58"/>
+      <c r="C94" s="71"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="62"/>
+      <c r="F94" s="62"/>
       <c r="G94" s="4" t="s">
         <v>105</v>
       </c>
@@ -12652,6 +17764,73 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="D19:D28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="D5:D11"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="C33:C52"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="E65:E76"/>
+    <mergeCell ref="D65:D76"/>
+    <mergeCell ref="D53:D64"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="E59:E60"/>
     <mergeCell ref="C3:C32"/>
     <mergeCell ref="D82:D85"/>
     <mergeCell ref="E82:E85"/>
@@ -12668,73 +17847,6 @@
     <mergeCell ref="C53:C89"/>
     <mergeCell ref="D86:D89"/>
     <mergeCell ref="E86:E89"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="E77:E80"/>
-    <mergeCell ref="E65:E76"/>
-    <mergeCell ref="D65:D76"/>
-    <mergeCell ref="D53:D64"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="D5:D11"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="C33:C52"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F24"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="D19:D28"/>
-    <mergeCell ref="E25:E28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12756,6 +17868,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101001915219AA6ED344790B50BE4227BB020" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="13c89d830943f840e05d04ef205d225b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f7d62ce6-85b2-47d4-aed3-b6ad05956793" xmlns:ns3="42a61f6c-c59c-42a4-a645-ef628d67d90a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ca67eee954a13a31636965b23359f128" ns2:_="" ns3:_="">
     <xsd:import namespace="f7d62ce6-85b2-47d4-aed3-b6ad05956793"/>
@@ -12960,15 +18081,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F142F9F-EC10-46B2-90E7-713CF6987131}">
   <ds:schemaRefs>
@@ -12987,6 +18099,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07B79634-3F75-44E6-8875-C9CD5ACC8C5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FAF2C1D-F4EC-4F75-8DFF-ED2F9383F6B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13003,12 +18123,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07B79634-3F75-44E6-8875-C9CD5ACC8C5C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>